--- a/OEGRES.xlsx
+++ b/OEGRES.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/oegres/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="460" windowWidth="27240" windowHeight="16420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24140" yWindow="4480" windowWidth="27240" windowHeight="16420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Full-&quot;germination&quot; &amp; &quot;cold strt" sheetId="1" r:id="rId1"/>
     <sheet name="core-germination &amp; strat." sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="674">
   <si>
     <t>inclusion</t>
   </si>
@@ -1885,12 +1880,204 @@
   <si>
     <t>OT,NA</t>
   </si>
+  <si>
+    <t>Rostamikia</t>
+  </si>
+  <si>
+    <t>Effect of Plant Growth Promoting Rhizobacteria (PGPR) and Cold Stratification on Seed Germination and Early Growth of Corylus avellana L</t>
+  </si>
+  <si>
+    <t>Aurstrian Journal of Forest Science</t>
+  </si>
+  <si>
+    <t>Botany Letters</t>
+  </si>
+  <si>
+    <t>Dormancy imposed by a tough seed coat in Malvella sherardiana (Malvaceae), a highly threatened species of Spain</t>
+  </si>
+  <si>
+    <t>OT/NT</t>
+  </si>
+  <si>
+    <t>PS,CS,CT, GP, GT-Ctonly</t>
+  </si>
+  <si>
+    <t>Treatments for seed germination improvement in Prunus azorica, Frangula azorica and Morella faya, three native species of Azores Islands</t>
+  </si>
+  <si>
+    <t>CT,CS,GP,GT</t>
+  </si>
+  <si>
+    <t>Veiga-Barbosa</t>
+  </si>
+  <si>
+    <t>AOB Plants</t>
+  </si>
+  <si>
+    <t>Shalimu</t>
+  </si>
+  <si>
+    <t>Changes in oxidative patterns during dormancy break by warm and cold stratification in seeds of an edible fruit tree</t>
+  </si>
+  <si>
+    <t>Phyton</t>
+  </si>
+  <si>
+    <t>Masini</t>
+  </si>
+  <si>
+    <t>Germination of Gutierrezia solbrigii and Senecio subulatus, endemic Asteraceae from Argentina</t>
+  </si>
+  <si>
+    <t>Scarification and stratification protocols for raspberry (Rubus idaeus L.) seed germination</t>
+  </si>
+  <si>
+    <t>Contreras</t>
+  </si>
+  <si>
+    <t>XI INTERNATIONAL RUBUS AND RIBES SYMPOSIUM</t>
+  </si>
+  <si>
+    <t>XXIX INTERNATIONAL HORTICULTURAL CONGRESS ON HORTICULTURE</t>
+  </si>
+  <si>
+    <t>Blueberry rootstock: selection, evaluation, and field performance of grafted blueberry plants</t>
+  </si>
+  <si>
+    <t>Scarification and stratification protocols for breaking dormancy of Rubus (Rosaceae) species in Korea</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>CT,CS,GT,GP</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>A rapid method to determine germinability and viability of     Agriophyllum squarrosum (Amaranthaceae) seedsS</t>
+  </si>
+  <si>
+    <t>CT,GP</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Australian Journal of Botany</t>
+  </si>
+  <si>
+    <t>Seed dormancy and germination in different populations of the Argentinan endemic halophyte grass, Sporobolus phleoides (Poaceae: Chloridoideae)</t>
+  </si>
+  <si>
+    <t>AR,CS,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>Mattana</t>
+  </si>
+  <si>
+    <t>Effect of temperature and cold stratification on seed germination of the Mediterranean wild aromatic Clinopodium sandalioticum (Lamiaceae)</t>
+  </si>
+  <si>
+    <t>Plant Biosystems</t>
+  </si>
+  <si>
+    <t>CS,IT,GP, GT</t>
+  </si>
+  <si>
+    <t>Horticultural Science</t>
+  </si>
+  <si>
+    <t>Effect of warm and cold stratification and ethanol treatment on germination of Corylopsis seeds</t>
+  </si>
+  <si>
+    <t>WS,CS,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>How does moist cold stratification under field conditions affect the dormancy release of Korean pine seed (Pinus koraiensis)?</t>
+  </si>
+  <si>
+    <t>CS,CT,GP,NA</t>
+  </si>
+  <si>
+    <t>Juan-Vicedo</t>
+  </si>
+  <si>
+    <t>CS,WS,CT,GP,NA</t>
+  </si>
+  <si>
+    <t>Seed germination and storage behaviour of Lapiedra martinezii (Amaryllidaceae)</t>
+  </si>
+  <si>
+    <t>Shao</t>
+  </si>
+  <si>
+    <t>Bioassay of endogenous germination inhibitors in Trillium kamtschaticum seed</t>
+  </si>
+  <si>
+    <t>CT,OR,NA</t>
+  </si>
+  <si>
+    <t>Local climate explains degree of seed dormancy in Hypericum elodes L. (Hypericaceae)</t>
+  </si>
+  <si>
+    <t>CS,IT,GP</t>
+  </si>
+  <si>
+    <t>Dormancy release of Cotinus coggygria seeds under a pre-cold moist stratification: an endogenous abscisic acid/gibberellic acid and comparative proteomic analysis</t>
+  </si>
+  <si>
+    <t>Deng</t>
+  </si>
+  <si>
+    <t>Germination and dormancy-breaking of Daphne giraldii Nitsche (Thymelaeaceae) seeds from northwestern China</t>
+  </si>
+  <si>
+    <t>REVISTA CHAPINGO SERIE CIENCIAS FORESTALES Y DEL AMBIENTE</t>
+  </si>
+  <si>
+    <t>BMC Plants</t>
+  </si>
+  <si>
+    <t>Fang</t>
+  </si>
+  <si>
+    <t>CS,L,GP,GT,OR</t>
+  </si>
+  <si>
+    <t>Changes in hormone flux and signaling in white spruce (Picea glauca) seeds during the transition from dormancy to germination in response to temperature cues</t>
+  </si>
+  <si>
+    <t>Manole</t>
+  </si>
+  <si>
+    <t>Bangladesh Journal of Botany</t>
+  </si>
+  <si>
+    <t>SEED DORMANCY AND GERMINATION REQUIREMENTS IN ANGELICA PALUSTRIS (BESSER) HOFM., A CRITICALLY ENDANGERED PLANT</t>
+  </si>
+  <si>
+    <t>CS,GP,GT,NA</t>
+  </si>
+  <si>
+    <t>Poletto</t>
+  </si>
+  <si>
+    <t>Germination and development of pecan cultivar seedlings by seed stratification</t>
+  </si>
+  <si>
+    <t>CS,GP,GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESQUISA AGROPECUARIA BRASILEIRA </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1946,6 +2133,11 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2033,7 +2225,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2045,8 +2237,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2063,8 +2256,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2075,6 +2270,7 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2411,14 +2607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="118" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
@@ -2426,7 +2622,7 @@
     <col min="13" max="13" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2447,7 +2643,7 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2470,7 +2666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2496,7 +2692,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2522,7 +2718,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2545,7 +2741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2568,7 +2764,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2594,7 +2790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2617,7 +2813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2640,7 +2836,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2663,7 +2859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2686,7 +2882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -2709,7 +2905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="J13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2717,7 +2913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="J14" s="9" t="s">
         <v>18</v>
       </c>
@@ -2725,7 +2921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="J15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2733,7 +2929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="J16" s="7" t="s">
         <v>30</v>
       </c>
@@ -2741,7 +2937,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="10:11">
       <c r="J17" s="9" t="s">
         <v>5</v>
       </c>
@@ -2761,15 +2957,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFC185C-43A7-3741-8877-C403DFCD0D3E}">
-  <dimension ref="A1:L164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
@@ -2778,7 +2974,7 @@
     <col min="12" max="12" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -2805,7 +3001,7 @@
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2831,7 +3027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -2860,7 +3056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -2886,7 +3082,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -2912,7 +3108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2941,7 +3137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -2970,7 +3166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2996,7 +3192,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>498</v>
       </c>
@@ -3022,7 +3218,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3051,7 +3247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3080,7 +3276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -3106,7 +3302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -3132,7 +3328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -3158,7 +3354,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3187,7 +3383,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -3213,7 +3409,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -3242,7 +3438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -3271,7 +3467,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -3297,7 +3493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="B20">
         <v>2017</v>
       </c>
@@ -3317,7 +3513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -3337,7 +3533,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -3360,7 +3556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -3383,7 +3579,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -3406,7 +3602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -3429,7 +3625,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -3452,7 +3648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -3475,7 +3671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -3495,7 +3691,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -3518,7 +3714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -3541,7 +3737,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -3564,7 +3760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -3587,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -3607,7 +3803,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -3627,7 +3823,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>176</v>
       </c>
@@ -3650,7 +3846,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>181</v>
       </c>
@@ -3673,7 +3869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -3693,7 +3889,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -3716,7 +3912,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -3739,7 +3935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -3762,7 +3958,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -3785,7 +3981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -3808,7 +4004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -3831,7 +4027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>217</v>
       </c>
@@ -3854,7 +4050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>220</v>
       </c>
@@ -3874,7 +4070,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -3897,7 +4093,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -3920,7 +4116,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -3940,7 +4136,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>236</v>
       </c>
@@ -3963,7 +4159,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -3986,7 +4182,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -4006,7 +4202,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -4026,7 +4222,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -4046,7 +4242,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>254</v>
       </c>
@@ -4069,7 +4265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -4092,7 +4288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -4115,7 +4311,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>264</v>
       </c>
@@ -4138,7 +4334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>267</v>
       </c>
@@ -4158,7 +4354,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -4181,7 +4377,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>276</v>
       </c>
@@ -4201,7 +4397,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -4224,7 +4420,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>281</v>
       </c>
@@ -4245,7 +4441,7 @@
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>285</v>
       </c>
@@ -4265,7 +4461,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>289</v>
       </c>
@@ -4285,7 +4481,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>293</v>
       </c>
@@ -4308,7 +4504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>296</v>
       </c>
@@ -4331,7 +4527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>300</v>
       </c>
@@ -4351,7 +4547,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -4374,7 +4570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>307</v>
       </c>
@@ -4397,7 +4593,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>309</v>
       </c>
@@ -4420,7 +4616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>312</v>
       </c>
@@ -4440,7 +4636,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>315</v>
       </c>
@@ -4460,7 +4656,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>319</v>
       </c>
@@ -4483,7 +4679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>402</v>
       </c>
@@ -4504,7 +4700,7 @@
       </c>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4527,7 +4723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>325</v>
       </c>
@@ -4550,7 +4746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>326</v>
       </c>
@@ -4573,7 +4769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>333</v>
       </c>
@@ -4593,7 +4789,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>337</v>
       </c>
@@ -4616,7 +4812,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>340</v>
       </c>
@@ -4636,7 +4832,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>347</v>
       </c>
@@ -4659,7 +4855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>341</v>
       </c>
@@ -4682,7 +4878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>319</v>
       </c>
@@ -4705,7 +4901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>350</v>
       </c>
@@ -4728,7 +4924,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>357</v>
       </c>
@@ -4748,7 +4944,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>278</v>
       </c>
@@ -4768,7 +4964,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>382</v>
       </c>
@@ -4791,7 +4987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>362</v>
       </c>
@@ -4814,7 +5010,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>368</v>
       </c>
@@ -4837,7 +5033,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>369</v>
       </c>
@@ -4857,7 +5053,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>374</v>
       </c>
@@ -4880,7 +5076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>376</v>
       </c>
@@ -4903,7 +5099,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>379</v>
       </c>
@@ -4926,7 +5122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>382</v>
       </c>
@@ -4949,7 +5145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -4969,7 +5165,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>387</v>
       </c>
@@ -4992,7 +5188,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>391</v>
       </c>
@@ -5013,7 +5209,7 @@
       </c>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>396</v>
       </c>
@@ -5033,7 +5229,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>326</v>
       </c>
@@ -5053,7 +5249,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>406</v>
       </c>
@@ -5076,7 +5272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -5099,7 +5295,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>413</v>
       </c>
@@ -5122,7 +5318,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>420</v>
       </c>
@@ -5145,7 +5341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>423</v>
       </c>
@@ -5168,7 +5364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>427</v>
       </c>
@@ -5191,7 +5387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>376</v>
       </c>
@@ -5211,7 +5407,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>435</v>
       </c>
@@ -5231,7 +5427,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>437</v>
       </c>
@@ -5254,7 +5450,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>441</v>
       </c>
@@ -5277,7 +5473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>326</v>
       </c>
@@ -5294,7 +5490,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>446</v>
       </c>
@@ -5317,7 +5513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>450</v>
       </c>
@@ -5337,7 +5533,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>452</v>
       </c>
@@ -5357,7 +5553,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>456</v>
       </c>
@@ -5380,7 +5576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>460</v>
       </c>
@@ -5400,7 +5596,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>326</v>
       </c>
@@ -5423,7 +5619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>466</v>
       </c>
@@ -5446,7 +5642,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>470</v>
       </c>
@@ -5469,7 +5665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>473</v>
       </c>
@@ -5489,7 +5685,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>475</v>
       </c>
@@ -5509,7 +5705,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>479</v>
       </c>
@@ -5532,7 +5728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>481</v>
       </c>
@@ -5552,7 +5748,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>484</v>
       </c>
@@ -5572,7 +5768,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>486</v>
       </c>
@@ -5592,7 +5788,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>492</v>
       </c>
@@ -5615,7 +5811,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>326</v>
       </c>
@@ -5635,7 +5831,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>173</v>
       </c>
@@ -5658,7 +5854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>498</v>
       </c>
@@ -5678,7 +5874,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>502</v>
       </c>
@@ -5701,7 +5897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>503</v>
       </c>
@@ -5724,7 +5920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>508</v>
       </c>
@@ -5747,7 +5943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>572</v>
       </c>
@@ -5770,7 +5966,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>341</v>
       </c>
@@ -5793,7 +5989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>514</v>
       </c>
@@ -5816,7 +6012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -5839,7 +6035,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>519</v>
       </c>
@@ -5862,7 +6058,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>522</v>
       </c>
@@ -5885,7 +6081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>525</v>
       </c>
@@ -5905,7 +6101,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>527</v>
       </c>
@@ -5925,7 +6121,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>532</v>
       </c>
@@ -5948,7 +6144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>536</v>
       </c>
@@ -5971,7 +6167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>540</v>
       </c>
@@ -5991,7 +6187,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>542</v>
       </c>
@@ -6014,7 +6210,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>546</v>
       </c>
@@ -6037,7 +6233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>542</v>
       </c>
@@ -6060,7 +6256,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>552</v>
       </c>
@@ -6083,7 +6279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>555</v>
       </c>
@@ -6106,7 +6302,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>557</v>
       </c>
@@ -6129,7 +6325,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="18">
       <c r="A149" t="s">
         <v>562</v>
       </c>
@@ -6152,7 +6348,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>565</v>
       </c>
@@ -6175,7 +6371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>568</v>
       </c>
@@ -6198,7 +6394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>131</v>
       </c>
@@ -6218,7 +6414,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>573</v>
       </c>
@@ -6241,7 +6437,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>576</v>
       </c>
@@ -6264,7 +6460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="18">
       <c r="A155" s="14" t="s">
         <v>581</v>
       </c>
@@ -6287,7 +6483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>582</v>
       </c>
@@ -6307,7 +6503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>585</v>
       </c>
@@ -6330,7 +6526,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>588</v>
       </c>
@@ -6353,7 +6549,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>341</v>
       </c>
@@ -6376,7 +6572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>596</v>
       </c>
@@ -6399,7 +6595,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>597</v>
       </c>
@@ -6419,7 +6615,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="18">
       <c r="A162" t="s">
         <v>602</v>
       </c>
@@ -6442,7 +6638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>604</v>
       </c>
@@ -6465,7 +6661,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>607</v>
       </c>
@@ -6486,10 +6682,465 @@
       </c>
       <c r="G164" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>610</v>
+      </c>
+      <c r="B165" s="16">
+        <v>2016</v>
+      </c>
+      <c r="C165" t="s">
+        <v>612</v>
+      </c>
+      <c r="D165" t="s">
+        <v>611</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>619</v>
+      </c>
+      <c r="B166">
+        <v>2016</v>
+      </c>
+      <c r="C166" t="s">
+        <v>613</v>
+      </c>
+      <c r="D166" t="s">
+        <v>614</v>
+      </c>
+      <c r="E166" t="s">
+        <v>35</v>
+      </c>
+      <c r="F166" t="s">
+        <v>616</v>
+      </c>
+      <c r="G166" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>376</v>
+      </c>
+      <c r="B167">
+        <v>2016</v>
+      </c>
+      <c r="C167" t="s">
+        <v>613</v>
+      </c>
+      <c r="D167" t="s">
+        <v>617</v>
+      </c>
+      <c r="E167" t="s">
+        <v>4</v>
+      </c>
+      <c r="F167" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>621</v>
+      </c>
+      <c r="B168">
+        <v>2016</v>
+      </c>
+      <c r="C168" t="s">
+        <v>620</v>
+      </c>
+      <c r="D168" t="s">
+        <v>622</v>
+      </c>
+      <c r="E168" t="s">
+        <v>35</v>
+      </c>
+      <c r="F168" t="s">
+        <v>375</v>
+      </c>
+      <c r="G168" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>624</v>
+      </c>
+      <c r="B169">
+        <v>2016</v>
+      </c>
+      <c r="C169" t="s">
+        <v>623</v>
+      </c>
+      <c r="D169" t="s">
+        <v>625</v>
+      </c>
+      <c r="E169" t="s">
+        <v>35</v>
+      </c>
+      <c r="F169" t="s">
+        <v>25</v>
+      </c>
+      <c r="G169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="17">
+      <c r="A170" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="B170">
+        <v>2016</v>
+      </c>
+      <c r="C170" t="s">
+        <v>628</v>
+      </c>
+      <c r="D170" t="s">
+        <v>626</v>
+      </c>
+      <c r="E170" t="s">
+        <v>35</v>
+      </c>
+      <c r="F170" t="s">
+        <v>60</v>
+      </c>
+      <c r="G170" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>224</v>
+      </c>
+      <c r="B171">
+        <v>2016</v>
+      </c>
+      <c r="C171" t="s">
+        <v>629</v>
+      </c>
+      <c r="D171" t="s">
+        <v>630</v>
+      </c>
+      <c r="E171" t="s">
+        <v>35</v>
+      </c>
+      <c r="F171" t="s">
+        <v>60</v>
+      </c>
+      <c r="G171" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>632</v>
+      </c>
+      <c r="B172">
+        <v>2016</v>
+      </c>
+      <c r="C172" t="s">
+        <v>342</v>
+      </c>
+      <c r="D172" t="s">
+        <v>631</v>
+      </c>
+      <c r="E172" t="s">
+        <v>4</v>
+      </c>
+      <c r="F172" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>634</v>
+      </c>
+      <c r="B173">
+        <v>2016</v>
+      </c>
+      <c r="C173" t="s">
+        <v>342</v>
+      </c>
+      <c r="D173" t="s">
+        <v>635</v>
+      </c>
+      <c r="E173" t="s">
+        <v>35</v>
+      </c>
+      <c r="F173" t="s">
+        <v>636</v>
+      </c>
+      <c r="G173" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>637</v>
+      </c>
+      <c r="B174">
+        <v>2016</v>
+      </c>
+      <c r="C174" t="s">
+        <v>638</v>
+      </c>
+      <c r="D174" t="s">
+        <v>639</v>
+      </c>
+      <c r="E174" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>641</v>
+      </c>
+      <c r="B175">
+        <v>2016</v>
+      </c>
+      <c r="C175" t="s">
+        <v>643</v>
+      </c>
+      <c r="D175" t="s">
+        <v>642</v>
+      </c>
+      <c r="E175" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>326</v>
+      </c>
+      <c r="B176">
+        <v>2016</v>
+      </c>
+      <c r="C176" t="s">
+        <v>645</v>
+      </c>
+      <c r="D176" t="s">
+        <v>646</v>
+      </c>
+      <c r="E176" t="s">
+        <v>4</v>
+      </c>
+      <c r="F176" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>319</v>
+      </c>
+      <c r="B177">
+        <v>2016</v>
+      </c>
+      <c r="C177" t="s">
+        <v>342</v>
+      </c>
+      <c r="D177" t="s">
+        <v>648</v>
+      </c>
+      <c r="E177" t="s">
+        <v>35</v>
+      </c>
+      <c r="F177" t="s">
+        <v>649</v>
+      </c>
+      <c r="G177" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>650</v>
+      </c>
+      <c r="B178">
+        <v>2016</v>
+      </c>
+      <c r="C178" t="s">
+        <v>342</v>
+      </c>
+      <c r="D178" t="s">
+        <v>652</v>
+      </c>
+      <c r="F178" t="s">
+        <v>651</v>
+      </c>
+      <c r="G178" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>653</v>
+      </c>
+      <c r="B179">
+        <v>2016</v>
+      </c>
+      <c r="C179" t="s">
+        <v>342</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="E179" t="s">
+        <v>35</v>
+      </c>
+      <c r="F179" t="s">
+        <v>655</v>
+      </c>
+      <c r="G179" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>261</v>
+      </c>
+      <c r="B180">
+        <v>2016</v>
+      </c>
+      <c r="C180" t="s">
+        <v>174</v>
+      </c>
+      <c r="D180" t="s">
+        <v>656</v>
+      </c>
+      <c r="E180" t="s">
+        <v>35</v>
+      </c>
+      <c r="F180" t="s">
+        <v>657</v>
+      </c>
+      <c r="G180" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>659</v>
+      </c>
+      <c r="B181">
+        <v>2016</v>
+      </c>
+      <c r="C181" t="s">
+        <v>290</v>
+      </c>
+      <c r="D181" t="s">
+        <v>658</v>
+      </c>
+      <c r="E181" t="s">
+        <v>4</v>
+      </c>
+      <c r="F181" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>663</v>
+      </c>
+      <c r="B182">
+        <v>2016</v>
+      </c>
+      <c r="C182" t="s">
+        <v>661</v>
+      </c>
+      <c r="D182" t="s">
+        <v>660</v>
+      </c>
+      <c r="E182" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>341</v>
+      </c>
+      <c r="B183">
+        <v>2016</v>
+      </c>
+      <c r="C183" t="s">
+        <v>662</v>
+      </c>
+      <c r="D183" t="s">
+        <v>665</v>
+      </c>
+      <c r="E183" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>666</v>
+      </c>
+      <c r="B184">
+        <v>2015</v>
+      </c>
+      <c r="C184" t="s">
+        <v>667</v>
+      </c>
+      <c r="D184" t="s">
+        <v>668</v>
+      </c>
+      <c r="E184" t="s">
+        <v>35</v>
+      </c>
+      <c r="F184" t="s">
+        <v>669</v>
+      </c>
+      <c r="G184" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>670</v>
+      </c>
+      <c r="B185">
+        <v>2015</v>
+      </c>
+      <c r="C185" t="s">
+        <v>673</v>
+      </c>
+      <c r="D185" t="s">
+        <v>671</v>
+      </c>
+      <c r="E185" t="s">
+        <v>4</v>
+      </c>
+      <c r="F185" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/OEGRES.xlsx
+++ b/OEGRES.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/oegres/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24140" yWindow="4480" windowWidth="27240" windowHeight="16420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2080" yWindow="2980" windowWidth="29140" windowHeight="16420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full-&quot;germination&quot; &amp; &quot;cold strt" sheetId="1" r:id="rId1"/>
     <sheet name="core-germination &amp; strat." sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="756">
   <si>
     <t>inclusion</t>
   </si>
@@ -2072,11 +2078,257 @@
   <si>
     <t xml:space="preserve">PESQUISA AGROPECUARIA BRASILEIRA </t>
   </si>
+  <si>
+    <t>Darrudi</t>
+  </si>
+  <si>
+    <t>Journal of Applied Research on Medicinal and Aromatic plants</t>
+  </si>
+  <si>
+    <t>Effects of moist stratification, GA3 and seed age on seed germination of Rheum khorasanicum B. Baradaran &amp; A. Jafari</t>
+  </si>
+  <si>
+    <t>CS,CT,AR,GP, NA</t>
+  </si>
+  <si>
+    <t>PS,CS, AR GP, GT</t>
+  </si>
+  <si>
+    <t>METHODS FOR OVERCOME DORMANCY OF PECAN Carya illinoinensis (Wangenh.) K. Koch SEEDS</t>
+  </si>
+  <si>
+    <t>Revista arvore</t>
+  </si>
+  <si>
+    <t>2015a</t>
+  </si>
+  <si>
+    <t>Crop Science</t>
+  </si>
+  <si>
+    <t>Eckberg</t>
+  </si>
+  <si>
+    <t>Switchgrass Population and Cold–Moist Stratification Mediate Germination</t>
+  </si>
+  <si>
+    <t>CS,GP,NA</t>
+  </si>
+  <si>
+    <t>Sabina</t>
+  </si>
+  <si>
+    <t>Romanian Biological Letters</t>
+  </si>
+  <si>
+    <t>Research regarding the influence of the preparing methods on seed germination on Gleditsia triacanthos L</t>
+  </si>
+  <si>
+    <t>CS,PS,PT,GP,GT</t>
+  </si>
+  <si>
+    <t>Ralston</t>
+  </si>
+  <si>
+    <t>Estuaries and Coasts</t>
+  </si>
+  <si>
+    <t>Temperature and Residence Time Controls on an Estuarine Harmful Algal Bloom: Modeling Hydrodynamics and Alexandrium fundyense in Nauset Estuary</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>not plants</t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>Seed Germination Ecology of the Cold Desert Annual Isatis violascens (Brassicaceae): Two Levels of Physiological Dormancy and Role of the Pericarp</t>
+  </si>
+  <si>
+    <t>AR,CT,CS,GP</t>
+  </si>
+  <si>
+    <t>Hoyle</t>
+  </si>
+  <si>
+    <t>WS,CS,IT,GP,GT</t>
+  </si>
+  <si>
+    <t>Seed germination strategies: an evolutionary trajectory independent of vegetative functional traits</t>
+  </si>
+  <si>
+    <t>SEED DORMANCY BREAKING TREATMENTS FOR AFRICAN PURSLANE (Zaleya pentandra)</t>
+  </si>
+  <si>
+    <t>WS,CS,CT,PS,GP,GT</t>
+  </si>
+  <si>
+    <t>NT-Ctonly</t>
+  </si>
+  <si>
+    <t>Plant Daninha</t>
+  </si>
+  <si>
+    <t>Munawar</t>
+  </si>
+  <si>
+    <t>Kellmann-Sopyla</t>
+  </si>
+  <si>
+    <t>Polar Biology</t>
+  </si>
+  <si>
+    <t>Germination capacity of five polar Caryophyllaceae and Poaceae species under different temperature conditions</t>
+  </si>
+  <si>
+    <t>Ranil</t>
+  </si>
+  <si>
+    <t>Improving seed germination of the eggplant rootstock Solanum torvum by testing multiple factors using an orthogonal array design</t>
+  </si>
+  <si>
+    <t>CS,CT,L,OT,GP,GT</t>
+  </si>
+  <si>
+    <t>Zulueta-Rodríguez</t>
+  </si>
+  <si>
+    <t>Forests</t>
+  </si>
+  <si>
+    <t>Effect of Hydropriming and Biopriming on Seed Germination and Growth of Two Mexican Fir Tree Species in Danger of Extinction</t>
+  </si>
+  <si>
+    <t>OT,GP,OR</t>
+  </si>
+  <si>
+    <t>Plant &amp; Cell Physiology</t>
+  </si>
+  <si>
+    <t>Loss of Arabidopsis thaliana Seed Dormancy is Associated with Increased Accumulation of the GID1 GA Hormone Receptors</t>
+  </si>
+  <si>
+    <t>Hauvermale</t>
+  </si>
+  <si>
+    <t>CS,AR,PS,L,OR</t>
+  </si>
+  <si>
+    <t>Puglia</t>
+  </si>
+  <si>
+    <t>Pericarp structure of Glebionis coronaria (L.) Cass. ex Spach (Asteraceae) cypselae controls water uptake during germination</t>
+  </si>
+  <si>
+    <t>AR,CS,IT,WS,GP,GT</t>
+  </si>
+  <si>
+    <t>Mating system modulates degree of seed dormancy in Hypericum elodes L. (Hypericaceae)</t>
+  </si>
+  <si>
+    <t>Skourti</t>
+  </si>
+  <si>
+    <t>Seed afterripening and germination photoinhibition in the genus Crocus (Iridaceae)</t>
+  </si>
+  <si>
+    <t>AR,WS,CS,GP,OR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Journal of Biometeorology</t>
+  </si>
+  <si>
+    <t>Rawal</t>
+  </si>
+  <si>
+    <t>Environmental effects on germination phenology of co-occurring eucalypts: implications for regeneration under climate change</t>
+  </si>
+  <si>
+    <t>IT,CS,L,SP,Gp,GT</t>
+  </si>
+  <si>
+    <t>DeCastro</t>
+  </si>
+  <si>
+    <t>Old sleeping Sicilian beauty: seed germination in thepalaeoendemic Petagnaea gussonei (Spreng.) Rauschert(Saniculoideae, Apiaceae)</t>
+  </si>
+  <si>
+    <t>plant physiology and Biochemestry</t>
+  </si>
+  <si>
+    <t>Ratajczak</t>
+  </si>
+  <si>
+    <t>Age-related changes in protein metabolism of beech (Fagus sylvatica L.) seeds during alleviation of dormancy and in the early stage of germination</t>
+  </si>
+  <si>
+    <t>CT,GP,OR</t>
+  </si>
+  <si>
+    <t>Effects of moist cold stratification on germination, plant growth regulators, metabolites and embryo ultrastructure in seeds of Acer morrisonense (Sapindaceae)</t>
+  </si>
+  <si>
+    <t>Germination and Dormancy in Annual Halophyte Juncus ranarius Song &amp; Perr.</t>
+  </si>
+  <si>
+    <t>NOTULAE BOTANICAE HORTI AGROBOTANICI CLUJ-NAPOCA</t>
+  </si>
+  <si>
+    <t>L,IT,CS,CT,OT,GP,GT</t>
+  </si>
+  <si>
+    <t>Features of Seed Germination in Different Ecological Groups of the Species of the Section Violidum, subgenus Nomimium, genus Viola L. (Violaceae)</t>
+  </si>
+  <si>
+    <t>Contemporary Problems of Ecology</t>
+  </si>
+  <si>
+    <t>Elisafenko</t>
+  </si>
+  <si>
+    <t>IT,CS,GP,GT</t>
+  </si>
+  <si>
+    <t>Causes and Breaking of Seed Dormancy in Flowering Dogwood (Cornus florida L.)</t>
+  </si>
+  <si>
+    <t>Chon</t>
+  </si>
+  <si>
+    <t>Role of Temperature and Gibberellic Acid in Stimulating Embryo Elongation and Radicle Emergence of Hepatica asiatica Nakai Seeds</t>
+  </si>
+  <si>
+    <t>CS,IT,CT,GP,OR</t>
+  </si>
+  <si>
+    <t>Cardinali</t>
+  </si>
+  <si>
+    <t>BOLETIN DE LA SOCIEDAD ARGENTINA DE BOTANICA</t>
+  </si>
+  <si>
+    <t>Determination of germination conditions and the effect of pretreatments in Cuphea glutinosa seeds (Lythraceae).</t>
+  </si>
+  <si>
+    <t>IT,CS,PS,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>Horticulture Environment and Biotechnology</t>
+  </si>
+  <si>
+    <t>Non-deep Simple Morphophysiological Dormancy in Seeds of Thalictrum rochebrunianum, an Endemic Perennial Herb in the Korean Peninsula</t>
+  </si>
+  <si>
+    <t>CS,CT,IT,GP,GT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2137,6 +2389,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2607,14 +2860,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="118" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
@@ -2622,7 +2875,7 @@
     <col min="13" max="13" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -2643,7 +2896,7 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2666,7 +2919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2692,7 +2945,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2718,7 +2971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -2741,7 +2994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2764,7 +3017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2790,7 +3043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2813,7 +3066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2836,7 +3089,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2859,7 +3112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -2882,7 +3135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -2905,7 +3158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J13" s="7" t="s">
         <v>41</v>
       </c>
@@ -2913,7 +3166,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J14" s="9" t="s">
         <v>18</v>
       </c>
@@ -2921,7 +3174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J15" s="5" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +3182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J16" s="7" t="s">
         <v>30</v>
       </c>
@@ -2937,7 +3190,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="10:11">
+    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J17" s="9" t="s">
         <v>5</v>
       </c>
@@ -2957,15 +3210,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L185"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C185" sqref="C185"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
@@ -2974,7 +3227,7 @@
     <col min="12" max="12" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3001,7 +3254,7 @@
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3027,7 +3280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3056,7 +3309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3075,14 +3328,14 @@
       <c r="F4" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3101,14 +3354,14 @@
       <c r="F5" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3130,14 +3383,14 @@
       <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -3160,13 +3413,13 @@
         <v>60</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3186,13 +3439,13 @@
         <v>94</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>498</v>
       </c>
@@ -3212,13 +3465,13 @@
         <v>97</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3241,13 +3494,13 @@
         <v>5</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3270,13 +3523,13 @@
         <v>5</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -3296,13 +3549,13 @@
         <v>205</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -3322,13 +3575,13 @@
         <v>104</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -3348,13 +3601,13 @@
         <v>105</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3377,13 +3630,13 @@
         <v>74</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -3402,14 +3655,14 @@
       <c r="F16" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -3431,14 +3684,14 @@
       <c r="G17" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -3461,13 +3714,13 @@
         <v>74</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>417</v>
+        <v>30</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -3486,14 +3739,14 @@
       <c r="F19" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="K19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2017</v>
       </c>
@@ -3512,8 +3765,14 @@
       <c r="G20" s="12" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -3533,7 +3792,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -3556,7 +3815,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -3579,7 +3838,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -3602,7 +3861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -3625,7 +3884,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -3648,7 +3907,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -3671,7 +3930,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -3691,7 +3950,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -3714,7 +3973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -3737,7 +3996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -3760,7 +4019,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -3783,7 +4042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -3803,7 +4062,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -3823,7 +4082,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>176</v>
       </c>
@@ -3846,7 +4105,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>181</v>
       </c>
@@ -3869,7 +4128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -3889,7 +4148,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -3912,7 +4171,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -3935,7 +4194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -3958,7 +4217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -3981,7 +4240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -4004,7 +4263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -4027,7 +4286,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>217</v>
       </c>
@@ -4050,7 +4309,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>220</v>
       </c>
@@ -4070,7 +4329,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -4093,7 +4352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -4116,7 +4375,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -4136,7 +4395,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>236</v>
       </c>
@@ -4159,7 +4418,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -4182,7 +4441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -4202,7 +4461,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -4222,7 +4481,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -4242,7 +4501,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>254</v>
       </c>
@@ -4265,7 +4524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -4288,7 +4547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -4311,7 +4570,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>264</v>
       </c>
@@ -4334,7 +4593,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>267</v>
       </c>
@@ -4354,7 +4613,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -4377,7 +4636,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>276</v>
       </c>
@@ -4397,7 +4656,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -4420,7 +4679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>281</v>
       </c>
@@ -4441,7 +4700,7 @@
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>285</v>
       </c>
@@ -4461,7 +4720,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>289</v>
       </c>
@@ -4481,7 +4740,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>293</v>
       </c>
@@ -4504,7 +4763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>296</v>
       </c>
@@ -4527,7 +4786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>300</v>
       </c>
@@ -4547,7 +4806,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -4570,7 +4829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>307</v>
       </c>
@@ -4593,7 +4852,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>309</v>
       </c>
@@ -4616,7 +4875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>312</v>
       </c>
@@ -4636,7 +4895,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>315</v>
       </c>
@@ -4656,7 +4915,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>319</v>
       </c>
@@ -4679,7 +4938,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>402</v>
       </c>
@@ -4700,7 +4959,7 @@
       </c>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4723,7 +4982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>325</v>
       </c>
@@ -4746,7 +5005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>326</v>
       </c>
@@ -4769,7 +5028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>333</v>
       </c>
@@ -4789,7 +5048,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>337</v>
       </c>
@@ -4812,7 +5071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>340</v>
       </c>
@@ -4832,7 +5091,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>347</v>
       </c>
@@ -4855,7 +5114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>341</v>
       </c>
@@ -4878,7 +5137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>319</v>
       </c>
@@ -4901,7 +5160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>350</v>
       </c>
@@ -4924,7 +5183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>357</v>
       </c>
@@ -4944,7 +5203,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>278</v>
       </c>
@@ -4964,7 +5223,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>382</v>
       </c>
@@ -4987,7 +5246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>362</v>
       </c>
@@ -5010,7 +5269,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>368</v>
       </c>
@@ -5033,7 +5292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>369</v>
       </c>
@@ -5053,7 +5312,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>374</v>
       </c>
@@ -5076,7 +5335,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>376</v>
       </c>
@@ -5099,7 +5358,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>379</v>
       </c>
@@ -5122,7 +5381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>382</v>
       </c>
@@ -5145,7 +5404,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -5165,7 +5424,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>387</v>
       </c>
@@ -5188,7 +5447,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>391</v>
       </c>
@@ -5209,7 +5468,7 @@
       </c>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>396</v>
       </c>
@@ -5229,7 +5488,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>326</v>
       </c>
@@ -5249,7 +5508,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>406</v>
       </c>
@@ -5272,7 +5531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -5295,7 +5554,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>413</v>
       </c>
@@ -5318,7 +5577,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>420</v>
       </c>
@@ -5341,7 +5600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>423</v>
       </c>
@@ -5364,7 +5623,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>427</v>
       </c>
@@ -5387,7 +5646,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>376</v>
       </c>
@@ -5407,7 +5666,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>435</v>
       </c>
@@ -5427,7 +5686,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>437</v>
       </c>
@@ -5450,7 +5709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>441</v>
       </c>
@@ -5473,7 +5732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>326</v>
       </c>
@@ -5490,7 +5749,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>446</v>
       </c>
@@ -5513,7 +5772,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>450</v>
       </c>
@@ -5533,7 +5792,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>452</v>
       </c>
@@ -5553,7 +5812,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>456</v>
       </c>
@@ -5576,7 +5835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>460</v>
       </c>
@@ -5596,7 +5855,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>326</v>
       </c>
@@ -5619,7 +5878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>466</v>
       </c>
@@ -5642,7 +5901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>470</v>
       </c>
@@ -5665,7 +5924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>473</v>
       </c>
@@ -5685,7 +5944,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>475</v>
       </c>
@@ -5705,7 +5964,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>479</v>
       </c>
@@ -5728,7 +5987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>481</v>
       </c>
@@ -5748,7 +6007,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>484</v>
       </c>
@@ -5768,7 +6027,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>486</v>
       </c>
@@ -5788,7 +6047,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>492</v>
       </c>
@@ -5811,7 +6070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>326</v>
       </c>
@@ -5831,7 +6090,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>173</v>
       </c>
@@ -5854,7 +6113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>498</v>
       </c>
@@ -5874,7 +6133,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>502</v>
       </c>
@@ -5897,7 +6156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>503</v>
       </c>
@@ -5920,7 +6179,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>508</v>
       </c>
@@ -5943,7 +6202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>572</v>
       </c>
@@ -5966,7 +6225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>341</v>
       </c>
@@ -5989,7 +6248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>514</v>
       </c>
@@ -6012,7 +6271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -6035,7 +6294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>519</v>
       </c>
@@ -6058,7 +6317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>522</v>
       </c>
@@ -6081,7 +6340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>525</v>
       </c>
@@ -6101,7 +6360,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>527</v>
       </c>
@@ -6121,7 +6380,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>532</v>
       </c>
@@ -6144,7 +6403,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>536</v>
       </c>
@@ -6167,7 +6426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>540</v>
       </c>
@@ -6187,7 +6446,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>542</v>
       </c>
@@ -6210,7 +6469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>546</v>
       </c>
@@ -6233,7 +6492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>542</v>
       </c>
@@ -6256,7 +6515,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>552</v>
       </c>
@@ -6279,7 +6538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>555</v>
       </c>
@@ -6302,7 +6561,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>557</v>
       </c>
@@ -6325,7 +6584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="18">
+    <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>562</v>
       </c>
@@ -6348,7 +6607,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>565</v>
       </c>
@@ -6371,7 +6630,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>568</v>
       </c>
@@ -6394,7 +6653,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>131</v>
       </c>
@@ -6414,7 +6673,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>573</v>
       </c>
@@ -6437,7 +6696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>576</v>
       </c>
@@ -6460,7 +6719,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="18">
+    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>581</v>
       </c>
@@ -6483,7 +6742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>582</v>
       </c>
@@ -6503,7 +6762,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>585</v>
       </c>
@@ -6526,7 +6785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>588</v>
       </c>
@@ -6549,7 +6808,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>341</v>
       </c>
@@ -6572,7 +6831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>596</v>
       </c>
@@ -6595,7 +6854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>597</v>
       </c>
@@ -6615,7 +6874,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="18">
+    <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>602</v>
       </c>
@@ -6638,7 +6897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>604</v>
       </c>
@@ -6661,7 +6920,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>607</v>
       </c>
@@ -6684,7 +6943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>610</v>
       </c>
@@ -6704,7 +6963,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>619</v>
       </c>
@@ -6727,7 +6986,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>376</v>
       </c>
@@ -6747,7 +7006,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>621</v>
       </c>
@@ -6770,7 +7029,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>624</v>
       </c>
@@ -6793,7 +7052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="17">
+    <row r="170" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
         <v>627</v>
       </c>
@@ -6816,7 +7075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>224</v>
       </c>
@@ -6839,7 +7098,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>632</v>
       </c>
@@ -6859,7 +7118,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>634</v>
       </c>
@@ -6882,7 +7141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>637</v>
       </c>
@@ -6902,7 +7161,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>641</v>
       </c>
@@ -6922,7 +7181,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>326</v>
       </c>
@@ -6942,7 +7201,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>319</v>
       </c>
@@ -6965,7 +7224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>650</v>
       </c>
@@ -6985,7 +7244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>653</v>
       </c>
@@ -7008,7 +7267,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>261</v>
       </c>
@@ -7031,7 +7290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>659</v>
       </c>
@@ -7051,7 +7310,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>663</v>
       </c>
@@ -7071,7 +7330,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>341</v>
       </c>
@@ -7091,7 +7350,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>666</v>
       </c>
@@ -7114,7 +7373,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>670</v>
       </c>
@@ -7132,6 +7391,539 @@
       </c>
       <c r="F185" t="s">
         <v>672</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>674</v>
+      </c>
+      <c r="B186">
+        <v>2015</v>
+      </c>
+      <c r="C186" t="s">
+        <v>675</v>
+      </c>
+      <c r="D186" t="s">
+        <v>676</v>
+      </c>
+      <c r="E186" t="s">
+        <v>35</v>
+      </c>
+      <c r="F186" t="s">
+        <v>677</v>
+      </c>
+      <c r="G186" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>670</v>
+      </c>
+      <c r="B187" t="s">
+        <v>681</v>
+      </c>
+      <c r="C187" t="s">
+        <v>680</v>
+      </c>
+      <c r="D187" t="s">
+        <v>679</v>
+      </c>
+      <c r="E187" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>683</v>
+      </c>
+      <c r="B188">
+        <v>2015</v>
+      </c>
+      <c r="C188" t="s">
+        <v>682</v>
+      </c>
+      <c r="D188" t="s">
+        <v>684</v>
+      </c>
+      <c r="E188" t="s">
+        <v>35</v>
+      </c>
+      <c r="F188" t="s">
+        <v>685</v>
+      </c>
+      <c r="G188" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>686</v>
+      </c>
+      <c r="B189">
+        <v>2015</v>
+      </c>
+      <c r="C189" t="s">
+        <v>687</v>
+      </c>
+      <c r="D189" t="s">
+        <v>688</v>
+      </c>
+      <c r="E189" t="s">
+        <v>4</v>
+      </c>
+      <c r="F189" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>690</v>
+      </c>
+      <c r="B190">
+        <v>2015</v>
+      </c>
+      <c r="C190" t="s">
+        <v>691</v>
+      </c>
+      <c r="D190" t="s">
+        <v>692</v>
+      </c>
+      <c r="E190" t="s">
+        <v>35</v>
+      </c>
+      <c r="F190" t="s">
+        <v>693</v>
+      </c>
+      <c r="G190" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>695</v>
+      </c>
+      <c r="B191">
+        <v>2015</v>
+      </c>
+      <c r="C191" t="s">
+        <v>101</v>
+      </c>
+      <c r="D191" t="s">
+        <v>696</v>
+      </c>
+      <c r="E191" t="s">
+        <v>35</v>
+      </c>
+      <c r="F191" t="s">
+        <v>697</v>
+      </c>
+      <c r="G191" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>698</v>
+      </c>
+      <c r="B192">
+        <v>2015</v>
+      </c>
+      <c r="C192" t="s">
+        <v>120</v>
+      </c>
+      <c r="D192" t="s">
+        <v>700</v>
+      </c>
+      <c r="E192" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>705</v>
+      </c>
+      <c r="B193">
+        <v>2015</v>
+      </c>
+      <c r="C193" t="s">
+        <v>704</v>
+      </c>
+      <c r="D193" t="s">
+        <v>701</v>
+      </c>
+      <c r="F193" t="s">
+        <v>702</v>
+      </c>
+      <c r="G193" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>706</v>
+      </c>
+      <c r="B194">
+        <v>2015</v>
+      </c>
+      <c r="C194" t="s">
+        <v>707</v>
+      </c>
+      <c r="D194" t="s">
+        <v>708</v>
+      </c>
+      <c r="E194" t="s">
+        <v>4</v>
+      </c>
+      <c r="F194" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>709</v>
+      </c>
+      <c r="B195">
+        <v>2015</v>
+      </c>
+      <c r="C195" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" t="s">
+        <v>710</v>
+      </c>
+      <c r="E195" t="s">
+        <v>4</v>
+      </c>
+      <c r="F195" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>712</v>
+      </c>
+      <c r="B196">
+        <v>2015</v>
+      </c>
+      <c r="C196" t="s">
+        <v>713</v>
+      </c>
+      <c r="D196" t="s">
+        <v>714</v>
+      </c>
+      <c r="E196" t="s">
+        <v>35</v>
+      </c>
+      <c r="F196" t="s">
+        <v>715</v>
+      </c>
+      <c r="G196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>718</v>
+      </c>
+      <c r="B197">
+        <v>2015</v>
+      </c>
+      <c r="C197" t="s">
+        <v>716</v>
+      </c>
+      <c r="D197" t="s">
+        <v>717</v>
+      </c>
+      <c r="E197" t="s">
+        <v>35</v>
+      </c>
+      <c r="F197" t="s">
+        <v>719</v>
+      </c>
+      <c r="G197" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>720</v>
+      </c>
+      <c r="B198">
+        <v>2015</v>
+      </c>
+      <c r="C198" t="s">
+        <v>198</v>
+      </c>
+      <c r="D198" t="s">
+        <v>721</v>
+      </c>
+      <c r="E198" t="s">
+        <v>4</v>
+      </c>
+      <c r="F198" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>261</v>
+      </c>
+      <c r="B199">
+        <v>2015</v>
+      </c>
+      <c r="C199" t="s">
+        <v>198</v>
+      </c>
+      <c r="D199" t="s">
+        <v>723</v>
+      </c>
+      <c r="E199" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>724</v>
+      </c>
+      <c r="B200">
+        <v>2015</v>
+      </c>
+      <c r="C200" t="s">
+        <v>198</v>
+      </c>
+      <c r="D200" t="s">
+        <v>725</v>
+      </c>
+      <c r="E200" t="s">
+        <v>35</v>
+      </c>
+      <c r="F200" t="s">
+        <v>726</v>
+      </c>
+      <c r="G200" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>728</v>
+      </c>
+      <c r="B201">
+        <v>2015</v>
+      </c>
+      <c r="C201" t="s">
+        <v>727</v>
+      </c>
+      <c r="D201" t="s">
+        <v>729</v>
+      </c>
+      <c r="E201" t="s">
+        <v>4</v>
+      </c>
+      <c r="F201" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>731</v>
+      </c>
+      <c r="B202">
+        <v>2015</v>
+      </c>
+      <c r="C202" t="s">
+        <v>174</v>
+      </c>
+      <c r="D202" t="s">
+        <v>732</v>
+      </c>
+      <c r="E202" t="s">
+        <v>35</v>
+      </c>
+      <c r="F202" t="s">
+        <v>636</v>
+      </c>
+      <c r="G202" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>734</v>
+      </c>
+      <c r="B203">
+        <v>2015</v>
+      </c>
+      <c r="C203" t="s">
+        <v>733</v>
+      </c>
+      <c r="D203" t="s">
+        <v>735</v>
+      </c>
+      <c r="E203" t="s">
+        <v>35</v>
+      </c>
+      <c r="F203" t="s">
+        <v>736</v>
+      </c>
+      <c r="G203" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>532</v>
+      </c>
+      <c r="B204">
+        <v>2015</v>
+      </c>
+      <c r="C204" t="s">
+        <v>733</v>
+      </c>
+      <c r="D204" t="s">
+        <v>737</v>
+      </c>
+      <c r="E204" t="s">
+        <v>4</v>
+      </c>
+      <c r="F204" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>176</v>
+      </c>
+      <c r="B205">
+        <v>2015</v>
+      </c>
+      <c r="C205" t="s">
+        <v>739</v>
+      </c>
+      <c r="D205" t="s">
+        <v>738</v>
+      </c>
+      <c r="E205" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>743</v>
+      </c>
+      <c r="B206">
+        <v>2015</v>
+      </c>
+      <c r="C206" t="s">
+        <v>742</v>
+      </c>
+      <c r="D206" t="s">
+        <v>741</v>
+      </c>
+      <c r="E206" t="s">
+        <v>4</v>
+      </c>
+      <c r="F206" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>341</v>
+      </c>
+      <c r="B207">
+        <v>2015</v>
+      </c>
+      <c r="C207" t="s">
+        <v>218</v>
+      </c>
+      <c r="D207" t="s">
+        <v>745</v>
+      </c>
+      <c r="E207" t="s">
+        <v>35</v>
+      </c>
+      <c r="F207" t="s">
+        <v>196</v>
+      </c>
+      <c r="G207" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>746</v>
+      </c>
+      <c r="B208">
+        <v>2015</v>
+      </c>
+      <c r="C208" t="s">
+        <v>443</v>
+      </c>
+      <c r="D208" t="s">
+        <v>747</v>
+      </c>
+      <c r="E208" t="s">
+        <v>35</v>
+      </c>
+      <c r="F208" t="s">
+        <v>748</v>
+      </c>
+      <c r="G208" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>749</v>
+      </c>
+      <c r="B209">
+        <v>2015</v>
+      </c>
+      <c r="C209" t="s">
+        <v>750</v>
+      </c>
+      <c r="D209" t="s">
+        <v>751</v>
+      </c>
+      <c r="E209" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>59</v>
+      </c>
+      <c r="B210">
+        <v>2015</v>
+      </c>
+      <c r="C210" t="s">
+        <v>753</v>
+      </c>
+      <c r="D210" t="s">
+        <v>754</v>
+      </c>
+      <c r="E210" t="s">
+        <v>4</v>
+      </c>
+      <c r="F210" t="s">
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -7143,4 +7935,16 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C63405-B788-A54C-969C-A11BDC6138A0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OEGRES.xlsx
+++ b/OEGRES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2980" windowWidth="29140" windowHeight="16420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="460" windowWidth="28800" windowHeight="15560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full-&quot;germination&quot; &amp; &quot;cold strt" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="826">
   <si>
     <t>inclusion</t>
   </si>
@@ -2323,6 +2323,216 @@
   </si>
   <si>
     <t>CS,CT,IT,GP,GT</t>
+  </si>
+  <si>
+    <t>Seed Germination Biology of Four Pomegranate (Punica granatum) Cultivars from Xinjiang, China</t>
+  </si>
+  <si>
+    <t>AR,CS,CT,WS,GP</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>American Journal of Botany</t>
+  </si>
+  <si>
+    <t>Lack of divergence in seed ecology of two Amphicarpaea (Fabaceae) species disjunct between eastern Asia and eastern North America</t>
+  </si>
+  <si>
+    <t>L,CS,MS,IT,GP,OR</t>
+  </si>
+  <si>
+    <t>Tuttle</t>
+  </si>
+  <si>
+    <t>Grain dormancy loss is associated with changes in ABA and GA sensitivity and hormone accumulation in bread wheat, Triticum aestivum (L.)</t>
+  </si>
+  <si>
+    <t>CS,CT,AR,GP,GT</t>
+  </si>
+  <si>
+    <t>Baskin</t>
+  </si>
+  <si>
+    <t>Non-deep simple morphophysiological dormancy in seeds of Cheirodendron trigynum (Araliaceae) from the montane zone of Hawaii</t>
+  </si>
+  <si>
+    <t>WS,CS,OT,GP,GT</t>
+  </si>
+  <si>
+    <t>Kondo</t>
+  </si>
+  <si>
+    <t>Morphophysiological dormancy in seeds of Convallaria keiskei and a proposal to recognize two types of double dormancy in seed dormancy classification</t>
+  </si>
+  <si>
+    <t>IT,L,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>Auge</t>
+  </si>
+  <si>
+    <t>Secondary dormancy dynamics depends on primary dormancy status in Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>WS,CS,AR,GP</t>
+  </si>
+  <si>
+    <t>Barak</t>
+  </si>
+  <si>
+    <t>Western North American Naturalist</t>
+  </si>
+  <si>
+    <t>Assessing the Value of Potential “Native Winners” for Restoration of Cheatgrass-Invaded Habitat</t>
+  </si>
+  <si>
+    <t>Ahmadloo</t>
+  </si>
+  <si>
+    <t>Effects of pectinase, BAP and dry storage on dormancy breaking and emergence rate of Crataegus pseudoheterophylla Pojark.</t>
+  </si>
+  <si>
+    <t>AR,CT,GP</t>
+  </si>
+  <si>
+    <t>Hormonal and environmental regulation of seed germination in salt cress (Thellungiella halophila)</t>
+  </si>
+  <si>
+    <t>L,CT,IT,OT,GP</t>
+  </si>
+  <si>
+    <t>SEED DORMANCY ALLEVIATION OF GREWIA TENAX (FORSSK.): A WILD FRUIT TREE SPECIES OF PAKISTAN</t>
+  </si>
+  <si>
+    <t>Sohail</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Weed Technology</t>
+  </si>
+  <si>
+    <t>Comparing Physical, Chemical, and Cold Stratification Methods for Alleviating Dormancy of Giant Ragweed (Ambrosia trifida) Seeds</t>
+  </si>
+  <si>
+    <t>African Journal of Range and Forage Science</t>
+  </si>
+  <si>
+    <t>The role of reproduction in Glyceria maxima invasion</t>
+  </si>
+  <si>
+    <t>Mugwedi</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>DOG1-imposed dormancy mediates germination responses to temperature cues</t>
+  </si>
+  <si>
+    <t>Environmental and Experimental Botany</t>
+  </si>
+  <si>
+    <t>NA,OR</t>
+  </si>
+  <si>
+    <t>Botanical Review</t>
+  </si>
+  <si>
+    <t>Jaganathan</t>
+  </si>
+  <si>
+    <t>Towards an Understanding of Factors Controlling Seed Bank Composition and Longevity in the Alpine Environment</t>
+  </si>
+  <si>
+    <t>Radglou</t>
+  </si>
+  <si>
+    <t>Breaking seed dormancy of three orthodox Mediterranean Rosaceae species</t>
+  </si>
+  <si>
+    <t>CS,PS,CT,GP, GT</t>
+  </si>
+  <si>
+    <t>CS,WS,PS,GP</t>
+  </si>
+  <si>
+    <t>Golmohammadzadeh</t>
+  </si>
+  <si>
+    <t>Weed Biology and Management</t>
+  </si>
+  <si>
+    <t>CT,CS,L,GP</t>
+  </si>
+  <si>
+    <t>Effects of some chemical factors, prechilling treatments and interactions on the seed dormancy‐breaking of two Papaver species</t>
+  </si>
+  <si>
+    <t>Seed dormancy and germination in Jeffersonia dubia(Berberidaceae) as affected by temperature and gibberellic acid</t>
+  </si>
+  <si>
+    <t>CS,WS,IT,CT,GP,OR</t>
+  </si>
+  <si>
+    <t>Garcia-Fernandez</t>
+  </si>
+  <si>
+    <t>Effects of the duration of cold stratification on early life stages of the Mediterranean alpine plant Silene ciliata</t>
+  </si>
+  <si>
+    <t>The Arabidopsis MYB96 transcription factor plays a role in seed dormancy</t>
+  </si>
+  <si>
+    <t>NT,OR</t>
+  </si>
+  <si>
+    <t>CS,WS,GP,GC</t>
+  </si>
+  <si>
+    <t>Timing of seed germination correlated with temperature-based environmental conditions during seed development in conifers</t>
+  </si>
+  <si>
+    <t>Non-deep simple morphophysiological dormancy in seeds of Viburnum lantana (Caprifoliaceae), a new dormancy level in the genus Viburnum</t>
+  </si>
+  <si>
+    <t>L,CS,WS,IT,GP,GT</t>
+  </si>
+  <si>
+    <t>Acta Oegologia</t>
+  </si>
+  <si>
+    <t>Hares promote seed dispersal and seedling establishment after volcanic eruptions</t>
+  </si>
+  <si>
+    <t>Nomura</t>
+  </si>
+  <si>
+    <t>ANnals of Botany</t>
+  </si>
+  <si>
+    <t>Simulating the germination response to diurnally alternating temperatures under climate change scenarios: comparative studies on Carex diandra seeds</t>
+  </si>
+  <si>
+    <t>CS,IT,CP,GT</t>
+  </si>
+  <si>
+    <t>Kanazashi</t>
+  </si>
+  <si>
+    <t>Journal of Forest Research</t>
+  </si>
+  <si>
+    <t>Seed dormancy and germination characteristics in relation to the regeneration of Acer pycnanthum, a vulnerable tree species in Japan</t>
+  </si>
+  <si>
+    <t>CS,IT, GP</t>
+  </si>
+  <si>
+    <t>CS,L,OT,Gp</t>
   </si>
 </sst>
 </file>
@@ -3211,11 +3421,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L210"/>
+  <dimension ref="A1:L234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F210" sqref="F210"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G233" sqref="G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7886,7 +8096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>749</v>
       </c>
@@ -7906,7 +8116,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>59</v>
       </c>
@@ -7924,6 +8134,528 @@
       </c>
       <c r="F210" t="s">
         <v>755</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>621</v>
+      </c>
+      <c r="B211">
+        <v>2015</v>
+      </c>
+      <c r="C211" t="s">
+        <v>218</v>
+      </c>
+      <c r="D211" t="s">
+        <v>756</v>
+      </c>
+      <c r="E211" t="s">
+        <v>35</v>
+      </c>
+      <c r="F211" t="s">
+        <v>757</v>
+      </c>
+      <c r="G211" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>758</v>
+      </c>
+      <c r="B212">
+        <v>2015</v>
+      </c>
+      <c r="C212" t="s">
+        <v>759</v>
+      </c>
+      <c r="D212" t="s">
+        <v>760</v>
+      </c>
+      <c r="E212" t="s">
+        <v>35</v>
+      </c>
+      <c r="F212" t="s">
+        <v>761</v>
+      </c>
+      <c r="G212" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>762</v>
+      </c>
+      <c r="B213">
+        <v>2015</v>
+      </c>
+      <c r="C213" t="s">
+        <v>198</v>
+      </c>
+      <c r="D213" t="s">
+        <v>763</v>
+      </c>
+      <c r="E213" t="s">
+        <v>4</v>
+      </c>
+      <c r="F213" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>765</v>
+      </c>
+      <c r="B214">
+        <v>2015</v>
+      </c>
+      <c r="C214" t="s">
+        <v>198</v>
+      </c>
+      <c r="D214" t="s">
+        <v>766</v>
+      </c>
+      <c r="E214" t="s">
+        <v>4</v>
+      </c>
+      <c r="F214" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>768</v>
+      </c>
+      <c r="B215">
+        <v>2015</v>
+      </c>
+      <c r="C215" t="s">
+        <v>198</v>
+      </c>
+      <c r="D215" t="s">
+        <v>769</v>
+      </c>
+      <c r="E215" t="s">
+        <v>4</v>
+      </c>
+      <c r="F215" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>771</v>
+      </c>
+      <c r="B216">
+        <v>2015</v>
+      </c>
+      <c r="C216" t="s">
+        <v>198</v>
+      </c>
+      <c r="D216" t="s">
+        <v>772</v>
+      </c>
+      <c r="E216" t="s">
+        <v>35</v>
+      </c>
+      <c r="F216" t="s">
+        <v>773</v>
+      </c>
+      <c r="G216" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>774</v>
+      </c>
+      <c r="B217">
+        <v>2015</v>
+      </c>
+      <c r="C217" t="s">
+        <v>775</v>
+      </c>
+      <c r="D217" t="s">
+        <v>776</v>
+      </c>
+      <c r="E217" t="s">
+        <v>35</v>
+      </c>
+      <c r="F217" t="s">
+        <v>521</v>
+      </c>
+      <c r="G217" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>777</v>
+      </c>
+      <c r="B218">
+        <v>2015</v>
+      </c>
+      <c r="C218" t="s">
+        <v>290</v>
+      </c>
+      <c r="D218" t="s">
+        <v>778</v>
+      </c>
+      <c r="E218" t="s">
+        <v>35</v>
+      </c>
+      <c r="F218" t="s">
+        <v>779</v>
+      </c>
+      <c r="G218" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>479</v>
+      </c>
+      <c r="B219">
+        <v>2015</v>
+      </c>
+      <c r="C219" t="s">
+        <v>539</v>
+      </c>
+      <c r="D219" t="s">
+        <v>780</v>
+      </c>
+      <c r="F219" t="s">
+        <v>781</v>
+      </c>
+      <c r="G219" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>783</v>
+      </c>
+      <c r="B220">
+        <v>2015</v>
+      </c>
+      <c r="C220" t="s">
+        <v>106</v>
+      </c>
+      <c r="D220" t="s">
+        <v>782</v>
+      </c>
+      <c r="E220" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>784</v>
+      </c>
+      <c r="B221">
+        <v>2015</v>
+      </c>
+      <c r="C221" t="s">
+        <v>785</v>
+      </c>
+      <c r="D221" t="s">
+        <v>786</v>
+      </c>
+      <c r="E221" t="s">
+        <v>4</v>
+      </c>
+      <c r="F221" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>789</v>
+      </c>
+      <c r="B222">
+        <v>2015</v>
+      </c>
+      <c r="C222" t="s">
+        <v>787</v>
+      </c>
+      <c r="D222" t="s">
+        <v>788</v>
+      </c>
+      <c r="E222" t="s">
+        <v>35</v>
+      </c>
+      <c r="F222" t="s">
+        <v>60</v>
+      </c>
+      <c r="G222" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>790</v>
+      </c>
+      <c r="B223">
+        <v>2015</v>
+      </c>
+      <c r="C223" t="s">
+        <v>792</v>
+      </c>
+      <c r="D223" t="s">
+        <v>791</v>
+      </c>
+      <c r="E223" t="s">
+        <v>35</v>
+      </c>
+      <c r="F223" t="s">
+        <v>793</v>
+      </c>
+      <c r="G223" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>795</v>
+      </c>
+      <c r="B224">
+        <v>2015</v>
+      </c>
+      <c r="C224" t="s">
+        <v>794</v>
+      </c>
+      <c r="D224" t="s">
+        <v>796</v>
+      </c>
+      <c r="E224" t="s">
+        <v>35</v>
+      </c>
+      <c r="F224" t="s">
+        <v>25</v>
+      </c>
+      <c r="G224" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>797</v>
+      </c>
+      <c r="B225">
+        <v>2015</v>
+      </c>
+      <c r="C225" t="s">
+        <v>500</v>
+      </c>
+      <c r="D225" t="s">
+        <v>798</v>
+      </c>
+      <c r="E225" t="s">
+        <v>35</v>
+      </c>
+      <c r="F225" t="s">
+        <v>800</v>
+      </c>
+      <c r="G225" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>801</v>
+      </c>
+      <c r="B226">
+        <v>2015</v>
+      </c>
+      <c r="C226" t="s">
+        <v>802</v>
+      </c>
+      <c r="D226" t="s">
+        <v>804</v>
+      </c>
+      <c r="E226" t="s">
+        <v>35</v>
+      </c>
+      <c r="F226" t="s">
+        <v>803</v>
+      </c>
+      <c r="G226" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>473</v>
+      </c>
+      <c r="B227">
+        <v>2015</v>
+      </c>
+      <c r="C227" t="s">
+        <v>174</v>
+      </c>
+      <c r="D227" t="s">
+        <v>805</v>
+      </c>
+      <c r="E227" t="s">
+        <v>35</v>
+      </c>
+      <c r="F227" t="s">
+        <v>806</v>
+      </c>
+      <c r="G227" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>807</v>
+      </c>
+      <c r="B228">
+        <v>2015</v>
+      </c>
+      <c r="C228" t="s">
+        <v>174</v>
+      </c>
+      <c r="D228" t="s">
+        <v>808</v>
+      </c>
+      <c r="E228" t="s">
+        <v>4</v>
+      </c>
+      <c r="F228" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>59</v>
+      </c>
+      <c r="B229">
+        <v>2015</v>
+      </c>
+      <c r="C229" t="s">
+        <v>98</v>
+      </c>
+      <c r="D229" t="s">
+        <v>809</v>
+      </c>
+      <c r="E229" t="s">
+        <v>35</v>
+      </c>
+      <c r="F229" t="s">
+        <v>329</v>
+      </c>
+      <c r="G229" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>341</v>
+      </c>
+      <c r="B230">
+        <v>2015</v>
+      </c>
+      <c r="C230" t="s">
+        <v>198</v>
+      </c>
+      <c r="D230" t="s">
+        <v>812</v>
+      </c>
+      <c r="E230" t="s">
+        <v>4</v>
+      </c>
+      <c r="F230" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>369</v>
+      </c>
+      <c r="B231">
+        <v>2015</v>
+      </c>
+      <c r="C231" t="s">
+        <v>198</v>
+      </c>
+      <c r="D231" t="s">
+        <v>813</v>
+      </c>
+      <c r="E231" t="s">
+        <v>4</v>
+      </c>
+      <c r="F231" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>817</v>
+      </c>
+      <c r="B232">
+        <v>2015</v>
+      </c>
+      <c r="C232" t="s">
+        <v>815</v>
+      </c>
+      <c r="D232" t="s">
+        <v>816</v>
+      </c>
+      <c r="E232" t="s">
+        <v>35</v>
+      </c>
+      <c r="F232" t="s">
+        <v>825</v>
+      </c>
+      <c r="G232" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>437</v>
+      </c>
+      <c r="B233">
+        <v>2015</v>
+      </c>
+      <c r="C233" t="s">
+        <v>818</v>
+      </c>
+      <c r="D233" t="s">
+        <v>819</v>
+      </c>
+      <c r="E233" t="s">
+        <v>4</v>
+      </c>
+      <c r="F233" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>821</v>
+      </c>
+      <c r="B234">
+        <v>2015</v>
+      </c>
+      <c r="C234" t="s">
+        <v>822</v>
+      </c>
+      <c r="D234" t="s">
+        <v>823</v>
+      </c>
+      <c r="E234" t="s">
+        <v>35</v>
+      </c>
+      <c r="F234" t="s">
+        <v>824</v>
+      </c>
+      <c r="G234" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/OEGRES.xlsx
+++ b/OEGRES.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/oegres/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="460" windowWidth="28800" windowHeight="15560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="2380" windowWidth="28800" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Full-&quot;germination&quot; &amp; &quot;cold strt" sheetId="1" r:id="rId1"/>
     <sheet name="core-germination &amp; strat." sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="934">
   <si>
     <t>inclusion</t>
   </si>
@@ -2534,11 +2529,336 @@
   <si>
     <t>CS,L,OT,Gp</t>
   </si>
+  <si>
+    <t>Goggin</t>
+  </si>
+  <si>
+    <t>A potential role for endogenous microflora in dormancy release, cytokinin metabolism and the response to fluridone in Lolium rigidum seeds</t>
+  </si>
+  <si>
+    <t>WS,L,CT,GP</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Epigenetic and hormonal profile during maturation of Quercus Suber L. somatic embryos</t>
+  </si>
+  <si>
+    <t>CS,L,OR</t>
+  </si>
+  <si>
+    <t>ORO,NT</t>
+  </si>
+  <si>
+    <t>Landis</t>
+  </si>
+  <si>
+    <t>PROCEEDINGS OF THE 2014 ANNUAL MEETING OF THE INTERNATIONAL PLANT PROPAGATORS SOCIETY</t>
+  </si>
+  <si>
+    <t>Propagating Native Milkweeds for Restoring Monarch Butterfly Habitat</t>
+  </si>
+  <si>
+    <t>NA, ND</t>
+  </si>
+  <si>
+    <t>Development of a Method for In Vitro Germination of Actinidia Seedlings to Enable Psa Bioassays and Ploidy Manipulation</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>VIII INTERNATIONAL SYMPOSIUM ON KIWIFRUIT</t>
+  </si>
+  <si>
+    <t>Bodede</t>
+  </si>
+  <si>
+    <t>PS,CS,GP</t>
+  </si>
+  <si>
+    <t>GERMINATION RESPONSE OF ZANTHOXYLUM CAPENSE (SMALL KNOBWOOD) SEEDS TO DIFFERENT
+PRE-TREATMENT PROTOCOLS</t>
+  </si>
+  <si>
+    <t>PHYTON-INTERNATIONAL JOURNAL OF EXPERIMENTAL BOTANY</t>
+  </si>
+  <si>
+    <t>Seed dormancy release and germination characteristics of Corispermum lehmannianum Bunge, an endemic species in the Gurbantunggut desert of China</t>
+  </si>
+  <si>
+    <t>IT,CS,AR,L,CT,GP,NA</t>
+  </si>
+  <si>
+    <t>Cryopreservation of dormant Prunus armeniaca L. seeds</t>
+  </si>
+  <si>
+    <t>CS,CT,PS,GP</t>
+  </si>
+  <si>
+    <t>Germination of Tilia miqueliana seeds following cold stratification and pretreatment with GA3 and magnetically-treated water</t>
+  </si>
+  <si>
+    <t>OT,CS,CT,GP,GT,NA</t>
+  </si>
+  <si>
+    <t>Eliasova</t>
+  </si>
+  <si>
+    <t>Dendrobiology</t>
+  </si>
+  <si>
+    <t>Storage compounds, ABA and fumarase in Fagus sylvatica embryos during stratification</t>
+  </si>
+  <si>
+    <t>ORO</t>
+  </si>
+  <si>
+    <t>Effects of dormancy-breaking treatments on seed germination of Koelreuteria paniculata and Mahonia aquifolium</t>
+  </si>
+  <si>
+    <t>ACTA BIOLOGICA CRACOVIENSIA Series Botanica 5</t>
+  </si>
+  <si>
+    <t>THE EFFECT OF TEMPERATURE, LIGHT AND CALCIUM CARBONATE ON SEED GERMINATION AND RADICLE GROWTH OF THE POLYCARPIC PERENNIAL GALIUM CRACOVIENSE (RUBIACEAE), A NARROW ENDEMIC SPECIES FROM SOUTHERN POLAND</t>
+  </si>
+  <si>
+    <t>CS,IT,L,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>2015b</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
+  </si>
+  <si>
+    <t>Seed dormancy of Nolana jaffuelii I.M.Johnst. (Solanaceae) in the coastal Atacama Desert</t>
+  </si>
+  <si>
+    <t>CS,PS,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>Journal of Integrated Agriculture</t>
+  </si>
+  <si>
+    <t>Dormancy release and germination of Echinochloa crus-galli grains in relation to galactomannan-hydrolysing enzyme activity</t>
+  </si>
+  <si>
+    <t>CS,OR,NA</t>
+  </si>
+  <si>
+    <t>de Vries</t>
+  </si>
+  <si>
+    <t>Conference: 6th International Symposium on Rose Research and Cultivation Location: Hannover, GERMANY</t>
+  </si>
+  <si>
+    <t>Factors Affecting the Germination of Hybrid Rose Achenes: a Review</t>
+  </si>
+  <si>
+    <t>Conev</t>
+  </si>
+  <si>
+    <t>Effect of Achene Coat Scarification, Maceration and Stratification on Seed Germination in Cold Hardy Garden Roses</t>
+  </si>
+  <si>
+    <t>Sanchez-Coronado</t>
+  </si>
+  <si>
+    <t>Complex dormancy in the seeds of Hypericum philonotis</t>
+  </si>
+  <si>
+    <t>L,CS,IT,CT,GP</t>
+  </si>
+  <si>
+    <t>Germination ecology of the endemic Iberian daffodil Narcissus radinganorum (Amaryllidaceae). Dormancy induction by cold stratification or desiccation in late stages of embryo growth</t>
+  </si>
+  <si>
+    <t>IT,CS,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>Mojzes</t>
+  </si>
+  <si>
+    <t>Polish Journal of Ecology</t>
+  </si>
+  <si>
+    <t>Plant-Derived Smoke Enhances Germination of the Invasive Common Milkweed (Asclepias syriaca L.)</t>
+  </si>
+  <si>
+    <t>CS,OT, GP</t>
+  </si>
+  <si>
+    <t>Gunny</t>
+  </si>
+  <si>
+    <t>The effect of pre-treatments and seed collection time on the germination characteristics of common hornbeam (Carpinus betulus) seeds in the Eastern Black Sea Region, Turkey</t>
+  </si>
+  <si>
+    <t>Annals of Forest Research</t>
+  </si>
+  <si>
+    <t>PS,CS,CT,IT.GP,GT</t>
+  </si>
+  <si>
+    <t>Seed germination characteristics of Phillyrea angustifolia L. and P. latifolia L. (Oleaceae), two Mediterranean shrub species having lignified endocarp</t>
+  </si>
+  <si>
+    <t>Belyakov</t>
+  </si>
+  <si>
+    <t>Inland Water Biology</t>
+  </si>
+  <si>
+    <t>Fruit germination of some representatives of the family Sparganiaceae Rudolphi under laboratory conditions</t>
+  </si>
+  <si>
+    <t>PS,CS,IT,GP,GT</t>
+  </si>
+  <si>
+    <t>Growing Native Seeds for Restoration: Seed Dormancy and Germination of Sidalcea malviflora ssp. virgata (Malvaceae)</t>
+  </si>
+  <si>
+    <t>Prausova</t>
+  </si>
+  <si>
+    <t>Generative reproduction of long stalked pondweed (Potamogeton praelongus Wulfen) in the laboratory</t>
+  </si>
+  <si>
+    <t>CS,PS,SD,OT,GP,NA</t>
+  </si>
+  <si>
+    <t>McMahon</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF FRUIT SCIENCE</t>
+  </si>
+  <si>
+    <t>Cutting and Seed Propagation of Chickasaw Plum (Prunus angustifolia)</t>
+  </si>
+  <si>
+    <t>PS,CS,GP,GT</t>
+  </si>
+  <si>
+    <t>SCIENTIFIC PAPERS-SERIES A-AGRONOMY</t>
+  </si>
+  <si>
+    <t>Panayotova</t>
+  </si>
+  <si>
+    <t>SEED GERMINATION OF Betonica bulgarica Deg. et Neic UNDER THE INFLUENCE OF DIFFERENT TREATMENTS AND SEED QUALITY</t>
+  </si>
+  <si>
+    <t>Kalve</t>
+  </si>
+  <si>
+    <t>Three-dimensional patterns of cell division and expansion throughout the development of Arabidopsis thaliana leaves</t>
+  </si>
+  <si>
+    <t>Gokbayrak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESPONSE OF VITIS VINIFERA L. SEEDS TO 22(S), 23(S)-HOMOBRASSINOLIDE </t>
+  </si>
+  <si>
+    <t>Anjun</t>
+  </si>
+  <si>
+    <t>IN VITRO EMBRYO CULTURE OF RARELY ENDANGERED MUSELLA LASIOCARPA (MUSACEAE) WITH EMBRYO DORMANCY</t>
+  </si>
+  <si>
+    <t>IT,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>Vizoso-Arribe</t>
+  </si>
+  <si>
+    <t>Influence of the canopy in the natural regeneration of Quercus robur in NW Spain</t>
+  </si>
+  <si>
+    <t>Phartyal</t>
+  </si>
+  <si>
+    <t>IT,WS,CS,Gp,GT</t>
+  </si>
+  <si>
+    <t>A comprehensive view of epicotyl dormancy in Viburnum furcatum: combining field studies with laboratory studies using temperature sequences</t>
+  </si>
+  <si>
+    <t>Martino</t>
+  </si>
+  <si>
+    <t>The role of GA3 in the germination process of high-mountain endemic and threatened species: Leontopodium nivalePinguicula fiorii and Soldanella minima subsp. samnitica (central Apennines, Italy)</t>
+  </si>
+  <si>
+    <t>Seed dormancy and germination in three Crocus ser. Verni species (Iridaceae): implications for evolution of dormancy within the genus</t>
+  </si>
+  <si>
+    <t>Amat</t>
+  </si>
+  <si>
+    <t>Plant Systematics and Evolution</t>
+  </si>
+  <si>
+    <t>Factors controlling seed germination of the Iberian critically endangered Pseudomisopates (Antirrhinaceae)</t>
+  </si>
+  <si>
+    <t>Ikram</t>
+  </si>
+  <si>
+    <t>DORMANCY STUDIES ON Euphorbia dracunculoides AND Astragalus spp.: MAJOR WEEDS OF ARID AREAS</t>
+  </si>
+  <si>
+    <t>CT.GP,OR</t>
+  </si>
+  <si>
+    <t>Bytnerowicz</t>
+  </si>
+  <si>
+    <t>L,IT,GP,GT,NA</t>
+  </si>
+  <si>
+    <t>Germination characteristics of Zannichellia palustris from a northern California spring-fed river</t>
+  </si>
+  <si>
+    <t>Imanishi</t>
+  </si>
+  <si>
+    <t>Seed dormancy and germination traits of an endangered aquatic plant species, Euryale ferox Salisb. (Nymphaeaceae)</t>
+  </si>
+  <si>
+    <t>SD,CS,WS,L,IT,GP,GT</t>
+  </si>
+  <si>
+    <t>Puttha</t>
+  </si>
+  <si>
+    <t>Agronomy for Sustainable Development</t>
+  </si>
+  <si>
+    <t>Pre-chill with gibberellic acid overcomes seed dormancy of Jerusalem artichoke</t>
+  </si>
+  <si>
+    <t>CT,CS,GP</t>
+  </si>
+  <si>
+    <t>Annis</t>
+  </si>
+  <si>
+    <t>Investigation of Seed Treatments and Fertilizer on Growth of Penstemon tubaeflorus</t>
+  </si>
+  <si>
+    <t>CS,CT,L,GP</t>
+  </si>
+  <si>
+    <t>Taiwanese montane Sambucus chinensis seeds require warm stratification, contrasting with other congeneric temperate members</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2688,7 +3008,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2701,6 +3021,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2722,12 +3044,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="11" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3070,14 +3394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="118" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
@@ -3085,7 +3409,7 @@
     <col min="13" max="13" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3106,7 +3430,7 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3129,7 +3453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3155,7 +3479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3181,7 +3505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3204,7 +3528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3227,7 +3551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3253,7 +3577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3276,7 +3600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3299,7 +3623,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3322,7 +3646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3345,7 +3669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -3368,7 +3692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="J13" s="7" t="s">
         <v>41</v>
       </c>
@@ -3376,7 +3700,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="J14" s="9" t="s">
         <v>18</v>
       </c>
@@ -3384,7 +3708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="J15" s="5" t="s">
         <v>29</v>
       </c>
@@ -3392,7 +3716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="J16" s="7" t="s">
         <v>30</v>
       </c>
@@ -3400,7 +3724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="10:11">
       <c r="J17" s="9" t="s">
         <v>5</v>
       </c>
@@ -3420,15 +3744,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L234"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G233" sqref="G233"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H273" sqref="H273"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
@@ -3437,7 +3761,7 @@
     <col min="12" max="12" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3464,7 +3788,7 @@
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3490,7 +3814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3519,7 +3843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3545,7 +3869,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3571,7 +3895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3600,7 +3924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -3629,7 +3953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3655,7 +3979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>498</v>
       </c>
@@ -3681,7 +4005,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3710,7 +4034,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -3739,7 +4063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -3765,7 +4089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -3791,7 +4115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -3817,7 +4141,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -3846,7 +4170,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -3872,7 +4196,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -3901,7 +4225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -3930,7 +4254,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -3956,7 +4280,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="B20">
         <v>2017</v>
       </c>
@@ -3982,7 +4306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -4002,7 +4326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -4025,7 +4349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -4048,7 +4372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -4071,7 +4395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -4094,7 +4418,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -4117,7 +4441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -4140,7 +4464,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -4160,7 +4484,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -4183,7 +4507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -4206,7 +4530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -4229,7 +4553,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -4252,7 +4576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -4272,7 +4596,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -4292,7 +4616,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>176</v>
       </c>
@@ -4315,7 +4639,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>181</v>
       </c>
@@ -4338,7 +4662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -4358,7 +4682,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -4381,7 +4705,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -4404,7 +4728,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -4427,7 +4751,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -4450,7 +4774,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -4473,7 +4797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -4496,7 +4820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>217</v>
       </c>
@@ -4519,7 +4843,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>220</v>
       </c>
@@ -4539,7 +4863,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -4562,7 +4886,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -4585,7 +4909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -4605,7 +4929,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>236</v>
       </c>
@@ -4628,7 +4952,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -4651,7 +4975,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -4671,7 +4995,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -4691,7 +5015,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -4711,7 +5035,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>254</v>
       </c>
@@ -4734,7 +5058,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -4757,7 +5081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -4780,7 +5104,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>264</v>
       </c>
@@ -4803,7 +5127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>267</v>
       </c>
@@ -4823,7 +5147,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -4846,7 +5170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>276</v>
       </c>
@@ -4866,7 +5190,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -4889,7 +5213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>281</v>
       </c>
@@ -4910,7 +5234,7 @@
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>285</v>
       </c>
@@ -4930,7 +5254,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>289</v>
       </c>
@@ -4950,7 +5274,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>293</v>
       </c>
@@ -4973,7 +5297,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>296</v>
       </c>
@@ -4996,7 +5320,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>300</v>
       </c>
@@ -5016,7 +5340,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -5039,7 +5363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>307</v>
       </c>
@@ -5062,7 +5386,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>309</v>
       </c>
@@ -5085,7 +5409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>312</v>
       </c>
@@ -5105,7 +5429,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>315</v>
       </c>
@@ -5125,7 +5449,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>319</v>
       </c>
@@ -5148,7 +5472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>402</v>
       </c>
@@ -5169,7 +5493,7 @@
       </c>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -5192,7 +5516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>325</v>
       </c>
@@ -5215,7 +5539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>326</v>
       </c>
@@ -5238,7 +5562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>333</v>
       </c>
@@ -5258,7 +5582,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>337</v>
       </c>
@@ -5281,7 +5605,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>340</v>
       </c>
@@ -5301,7 +5625,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>347</v>
       </c>
@@ -5324,7 +5648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>341</v>
       </c>
@@ -5347,7 +5671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>319</v>
       </c>
@@ -5370,7 +5694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>350</v>
       </c>
@@ -5393,7 +5717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>357</v>
       </c>
@@ -5413,7 +5737,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>278</v>
       </c>
@@ -5433,7 +5757,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>382</v>
       </c>
@@ -5456,7 +5780,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>362</v>
       </c>
@@ -5479,7 +5803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>368</v>
       </c>
@@ -5502,7 +5826,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>369</v>
       </c>
@@ -5522,7 +5846,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>374</v>
       </c>
@@ -5545,7 +5869,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>376</v>
       </c>
@@ -5568,7 +5892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>379</v>
       </c>
@@ -5591,7 +5915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>382</v>
       </c>
@@ -5614,7 +5938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -5634,7 +5958,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>387</v>
       </c>
@@ -5657,7 +5981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>391</v>
       </c>
@@ -5678,7 +6002,7 @@
       </c>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>396</v>
       </c>
@@ -5698,7 +6022,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>326</v>
       </c>
@@ -5718,7 +6042,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>406</v>
       </c>
@@ -5741,7 +6065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -5764,7 +6088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>413</v>
       </c>
@@ -5787,7 +6111,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>420</v>
       </c>
@@ -5810,7 +6134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>423</v>
       </c>
@@ -5833,7 +6157,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>427</v>
       </c>
@@ -5856,7 +6180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>376</v>
       </c>
@@ -5876,7 +6200,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>435</v>
       </c>
@@ -5896,7 +6220,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>437</v>
       </c>
@@ -5919,7 +6243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>441</v>
       </c>
@@ -5942,7 +6266,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>326</v>
       </c>
@@ -5959,7 +6283,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>446</v>
       </c>
@@ -5982,7 +6306,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>450</v>
       </c>
@@ -6002,7 +6326,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>452</v>
       </c>
@@ -6022,7 +6346,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>456</v>
       </c>
@@ -6045,7 +6369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>460</v>
       </c>
@@ -6065,7 +6389,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>326</v>
       </c>
@@ -6088,7 +6412,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>466</v>
       </c>
@@ -6111,7 +6435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>470</v>
       </c>
@@ -6134,7 +6458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>473</v>
       </c>
@@ -6154,7 +6478,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>475</v>
       </c>
@@ -6174,7 +6498,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>479</v>
       </c>
@@ -6197,7 +6521,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>481</v>
       </c>
@@ -6217,7 +6541,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>484</v>
       </c>
@@ -6237,7 +6561,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>486</v>
       </c>
@@ -6257,7 +6581,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>492</v>
       </c>
@@ -6280,7 +6604,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>326</v>
       </c>
@@ -6300,7 +6624,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>173</v>
       </c>
@@ -6323,7 +6647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>498</v>
       </c>
@@ -6343,7 +6667,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>502</v>
       </c>
@@ -6366,7 +6690,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>503</v>
       </c>
@@ -6389,7 +6713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>508</v>
       </c>
@@ -6412,7 +6736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>572</v>
       </c>
@@ -6435,7 +6759,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>341</v>
       </c>
@@ -6458,7 +6782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>514</v>
       </c>
@@ -6481,7 +6805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -6504,7 +6828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>519</v>
       </c>
@@ -6527,7 +6851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>522</v>
       </c>
@@ -6550,7 +6874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>525</v>
       </c>
@@ -6570,7 +6894,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>527</v>
       </c>
@@ -6590,7 +6914,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>532</v>
       </c>
@@ -6613,7 +6937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>536</v>
       </c>
@@ -6636,7 +6960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>540</v>
       </c>
@@ -6656,7 +6980,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>542</v>
       </c>
@@ -6679,7 +7003,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>546</v>
       </c>
@@ -6702,7 +7026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>542</v>
       </c>
@@ -6725,7 +7049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>552</v>
       </c>
@@ -6748,7 +7072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>555</v>
       </c>
@@ -6771,7 +7095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>557</v>
       </c>
@@ -6794,7 +7118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="18">
       <c r="A149" t="s">
         <v>562</v>
       </c>
@@ -6817,7 +7141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>565</v>
       </c>
@@ -6840,7 +7164,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>568</v>
       </c>
@@ -6863,7 +7187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>131</v>
       </c>
@@ -6883,7 +7207,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>573</v>
       </c>
@@ -6906,7 +7230,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>576</v>
       </c>
@@ -6929,7 +7253,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="18">
       <c r="A155" s="14" t="s">
         <v>581</v>
       </c>
@@ -6952,7 +7276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>582</v>
       </c>
@@ -6972,7 +7296,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>585</v>
       </c>
@@ -6995,7 +7319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>588</v>
       </c>
@@ -7018,7 +7342,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>341</v>
       </c>
@@ -7041,7 +7365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>596</v>
       </c>
@@ -7064,7 +7388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>597</v>
       </c>
@@ -7084,7 +7408,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="18">
       <c r="A162" t="s">
         <v>602</v>
       </c>
@@ -7107,7 +7431,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>604</v>
       </c>
@@ -7130,7 +7454,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>607</v>
       </c>
@@ -7153,7 +7477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>610</v>
       </c>
@@ -7173,7 +7497,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>619</v>
       </c>
@@ -7196,7 +7520,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>376</v>
       </c>
@@ -7216,7 +7540,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>621</v>
       </c>
@@ -7239,7 +7563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>624</v>
       </c>
@@ -7262,7 +7586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="18">
       <c r="A170" s="15" t="s">
         <v>627</v>
       </c>
@@ -7285,7 +7609,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>224</v>
       </c>
@@ -7308,7 +7632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>632</v>
       </c>
@@ -7328,7 +7652,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>634</v>
       </c>
@@ -7351,7 +7675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>637</v>
       </c>
@@ -7371,7 +7695,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>641</v>
       </c>
@@ -7391,7 +7715,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>326</v>
       </c>
@@ -7411,7 +7735,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>319</v>
       </c>
@@ -7434,7 +7758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>650</v>
       </c>
@@ -7454,7 +7778,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>653</v>
       </c>
@@ -7477,7 +7801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>261</v>
       </c>
@@ -7500,7 +7824,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>659</v>
       </c>
@@ -7520,7 +7844,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>663</v>
       </c>
@@ -7540,7 +7864,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>341</v>
       </c>
@@ -7560,7 +7884,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>666</v>
       </c>
@@ -7583,7 +7907,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>670</v>
       </c>
@@ -7603,7 +7927,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>674</v>
       </c>
@@ -7626,7 +7950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>670</v>
       </c>
@@ -7646,7 +7970,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>683</v>
       </c>
@@ -7669,7 +7993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>686</v>
       </c>
@@ -7689,7 +8013,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>690</v>
       </c>
@@ -7712,7 +8036,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>695</v>
       </c>
@@ -7735,7 +8059,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>698</v>
       </c>
@@ -7755,7 +8079,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>705</v>
       </c>
@@ -7775,7 +8099,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>706</v>
       </c>
@@ -7795,7 +8119,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>709</v>
       </c>
@@ -7815,7 +8139,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>712</v>
       </c>
@@ -7838,7 +8162,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>718</v>
       </c>
@@ -7861,7 +8185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>720</v>
       </c>
@@ -7881,7 +8205,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>261</v>
       </c>
@@ -7901,7 +8225,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>724</v>
       </c>
@@ -7924,7 +8248,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>728</v>
       </c>
@@ -7944,7 +8268,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>731</v>
       </c>
@@ -7967,7 +8291,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>734</v>
       </c>
@@ -7990,7 +8314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>532</v>
       </c>
@@ -8010,7 +8334,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>176</v>
       </c>
@@ -8030,7 +8354,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>743</v>
       </c>
@@ -8050,7 +8374,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>341</v>
       </c>
@@ -8073,7 +8397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>746</v>
       </c>
@@ -8096,7 +8420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>749</v>
       </c>
@@ -8116,7 +8440,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>59</v>
       </c>
@@ -8136,7 +8460,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>621</v>
       </c>
@@ -8159,7 +8483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>758</v>
       </c>
@@ -8182,7 +8506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>762</v>
       </c>
@@ -8202,7 +8526,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>765</v>
       </c>
@@ -8222,7 +8546,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>768</v>
       </c>
@@ -8242,7 +8566,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>771</v>
       </c>
@@ -8265,7 +8589,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>774</v>
       </c>
@@ -8288,7 +8612,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>777</v>
       </c>
@@ -8311,7 +8635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>479</v>
       </c>
@@ -8331,7 +8655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>783</v>
       </c>
@@ -8351,7 +8675,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>784</v>
       </c>
@@ -8371,7 +8695,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>789</v>
       </c>
@@ -8394,7 +8718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>790</v>
       </c>
@@ -8417,7 +8741,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>795</v>
       </c>
@@ -8440,7 +8764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>797</v>
       </c>
@@ -8463,7 +8787,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>801</v>
       </c>
@@ -8486,7 +8810,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>473</v>
       </c>
@@ -8509,7 +8833,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>807</v>
       </c>
@@ -8529,7 +8853,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>59</v>
       </c>
@@ -8552,7 +8876,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>341</v>
       </c>
@@ -8572,7 +8896,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>369</v>
       </c>
@@ -8592,7 +8916,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>817</v>
       </c>
@@ -8615,7 +8939,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>437</v>
       </c>
@@ -8635,7 +8959,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>821</v>
       </c>
@@ -8658,9 +8982,861 @@
         <v>74</v>
       </c>
     </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>826</v>
+      </c>
+      <c r="B235">
+        <v>2015</v>
+      </c>
+      <c r="C235" t="s">
+        <v>818</v>
+      </c>
+      <c r="D235" t="s">
+        <v>827</v>
+      </c>
+      <c r="E235" t="s">
+        <v>35</v>
+      </c>
+      <c r="F235" t="s">
+        <v>828</v>
+      </c>
+      <c r="G235" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>829</v>
+      </c>
+      <c r="B236">
+        <v>2015</v>
+      </c>
+      <c r="C236" t="s">
+        <v>137</v>
+      </c>
+      <c r="D236" t="s">
+        <v>830</v>
+      </c>
+      <c r="E236" t="s">
+        <v>35</v>
+      </c>
+      <c r="F236" t="s">
+        <v>831</v>
+      </c>
+      <c r="G236" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>833</v>
+      </c>
+      <c r="B237">
+        <v>2015</v>
+      </c>
+      <c r="C237" t="s">
+        <v>834</v>
+      </c>
+      <c r="D237" t="s">
+        <v>835</v>
+      </c>
+      <c r="E237" t="s">
+        <v>35</v>
+      </c>
+      <c r="F237" t="s">
+        <v>263</v>
+      </c>
+      <c r="G237" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>838</v>
+      </c>
+      <c r="B238">
+        <v>2015</v>
+      </c>
+      <c r="C238" t="s">
+        <v>839</v>
+      </c>
+      <c r="D238" t="s">
+        <v>837</v>
+      </c>
+      <c r="E238" t="s">
+        <v>35</v>
+      </c>
+      <c r="F238" t="s">
+        <v>263</v>
+      </c>
+      <c r="G238" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>840</v>
+      </c>
+      <c r="B239">
+        <v>2015</v>
+      </c>
+      <c r="C239" t="s">
+        <v>431</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="E239" t="s">
+        <v>35</v>
+      </c>
+      <c r="F239" t="s">
+        <v>841</v>
+      </c>
+      <c r="G239" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>758</v>
+      </c>
+      <c r="B240">
+        <v>2015</v>
+      </c>
+      <c r="C240" t="s">
+        <v>843</v>
+      </c>
+      <c r="D240" t="s">
+        <v>844</v>
+      </c>
+      <c r="E240" t="s">
+        <v>35</v>
+      </c>
+      <c r="F240" t="s">
+        <v>845</v>
+      </c>
+      <c r="G240" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>795</v>
+      </c>
+      <c r="B241">
+        <v>2015</v>
+      </c>
+      <c r="C241" t="s">
+        <v>342</v>
+      </c>
+      <c r="D241" t="s">
+        <v>846</v>
+      </c>
+      <c r="E241" t="s">
+        <v>35</v>
+      </c>
+      <c r="F241" t="s">
+        <v>847</v>
+      </c>
+      <c r="G241" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>36</v>
+      </c>
+      <c r="B242">
+        <v>2015</v>
+      </c>
+      <c r="C242" t="s">
+        <v>342</v>
+      </c>
+      <c r="D242" t="s">
+        <v>848</v>
+      </c>
+      <c r="E242" t="s">
+        <v>35</v>
+      </c>
+      <c r="F242" t="s">
+        <v>849</v>
+      </c>
+      <c r="G242" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>850</v>
+      </c>
+      <c r="B243">
+        <v>2015</v>
+      </c>
+      <c r="C243" t="s">
+        <v>851</v>
+      </c>
+      <c r="D243" t="s">
+        <v>852</v>
+      </c>
+      <c r="E243" t="s">
+        <v>35</v>
+      </c>
+      <c r="F243" t="s">
+        <v>323</v>
+      </c>
+      <c r="G243" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>376</v>
+      </c>
+      <c r="B244">
+        <v>2015</v>
+      </c>
+      <c r="C244" t="s">
+        <v>851</v>
+      </c>
+      <c r="D244" t="s">
+        <v>854</v>
+      </c>
+      <c r="E244" t="s">
+        <v>35</v>
+      </c>
+      <c r="F244" t="s">
+        <v>196</v>
+      </c>
+      <c r="G244" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>176</v>
+      </c>
+      <c r="B245" t="s">
+        <v>858</v>
+      </c>
+      <c r="C245" t="s">
+        <v>855</v>
+      </c>
+      <c r="D245" t="s">
+        <v>856</v>
+      </c>
+      <c r="E245" t="s">
+        <v>4</v>
+      </c>
+      <c r="F245" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>859</v>
+      </c>
+      <c r="B246">
+        <v>2015</v>
+      </c>
+      <c r="C246" t="s">
+        <v>156</v>
+      </c>
+      <c r="D246" t="s">
+        <v>860</v>
+      </c>
+      <c r="E246" t="s">
+        <v>4</v>
+      </c>
+      <c r="F246" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>319</v>
+      </c>
+      <c r="B247">
+        <v>2015</v>
+      </c>
+      <c r="C247" t="s">
+        <v>862</v>
+      </c>
+      <c r="D247" t="s">
+        <v>863</v>
+      </c>
+      <c r="E247" t="s">
+        <v>35</v>
+      </c>
+      <c r="F247" t="s">
+        <v>864</v>
+      </c>
+      <c r="G247" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="17">
+      <c r="A248" t="s">
+        <v>865</v>
+      </c>
+      <c r="B248">
+        <v>2015</v>
+      </c>
+      <c r="C248" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="D248" t="s">
+        <v>867</v>
+      </c>
+      <c r="E248" t="s">
+        <v>35</v>
+      </c>
+      <c r="F248" t="s">
+        <v>60</v>
+      </c>
+      <c r="G248" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>868</v>
+      </c>
+      <c r="B249">
+        <v>2015</v>
+      </c>
+      <c r="C249" t="s">
+        <v>866</v>
+      </c>
+      <c r="D249" t="s">
+        <v>869</v>
+      </c>
+      <c r="E249" t="s">
+        <v>35</v>
+      </c>
+      <c r="F249" t="s">
+        <v>60</v>
+      </c>
+      <c r="G249" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>870</v>
+      </c>
+      <c r="B250">
+        <v>2015</v>
+      </c>
+      <c r="C250" t="s">
+        <v>156</v>
+      </c>
+      <c r="D250" t="s">
+        <v>871</v>
+      </c>
+      <c r="E250" t="s">
+        <v>35</v>
+      </c>
+      <c r="F250" t="s">
+        <v>872</v>
+      </c>
+      <c r="G250" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>441</v>
+      </c>
+      <c r="B251">
+        <v>2015</v>
+      </c>
+      <c r="C251" t="s">
+        <v>394</v>
+      </c>
+      <c r="D251" t="s">
+        <v>873</v>
+      </c>
+      <c r="E251" t="s">
+        <v>4</v>
+      </c>
+      <c r="F251" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>875</v>
+      </c>
+      <c r="B252">
+        <v>2015</v>
+      </c>
+      <c r="C252" t="s">
+        <v>876</v>
+      </c>
+      <c r="D252" t="s">
+        <v>877</v>
+      </c>
+      <c r="E252" t="s">
+        <v>35</v>
+      </c>
+      <c r="F252" t="s">
+        <v>878</v>
+      </c>
+      <c r="G252" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>879</v>
+      </c>
+      <c r="B253">
+        <v>2015</v>
+      </c>
+      <c r="C253" t="s">
+        <v>342</v>
+      </c>
+      <c r="D253" t="s">
+        <v>880</v>
+      </c>
+      <c r="E253" t="s">
+        <v>35</v>
+      </c>
+      <c r="F253" t="s">
+        <v>649</v>
+      </c>
+      <c r="G253" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>391</v>
+      </c>
+      <c r="B254">
+        <v>2015</v>
+      </c>
+      <c r="C254" t="s">
+        <v>881</v>
+      </c>
+      <c r="D254" t="s">
+        <v>883</v>
+      </c>
+      <c r="E254" t="s">
+        <v>4</v>
+      </c>
+      <c r="F254" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>884</v>
+      </c>
+      <c r="B255">
+        <v>2015</v>
+      </c>
+      <c r="C255" t="s">
+        <v>885</v>
+      </c>
+      <c r="D255" t="s">
+        <v>886</v>
+      </c>
+      <c r="E255" t="s">
+        <v>4</v>
+      </c>
+      <c r="F255" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>588</v>
+      </c>
+      <c r="B256">
+        <v>2015</v>
+      </c>
+      <c r="C256" t="s">
+        <v>504</v>
+      </c>
+      <c r="D256" t="s">
+        <v>888</v>
+      </c>
+      <c r="E256" t="s">
+        <v>35</v>
+      </c>
+      <c r="F256" t="s">
+        <v>841</v>
+      </c>
+      <c r="G256" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>889</v>
+      </c>
+      <c r="B257">
+        <v>2015</v>
+      </c>
+      <c r="C257" t="s">
+        <v>187</v>
+      </c>
+      <c r="D257" t="s">
+        <v>890</v>
+      </c>
+      <c r="E257" t="s">
+        <v>35</v>
+      </c>
+      <c r="F257" t="s">
+        <v>891</v>
+      </c>
+      <c r="G257" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>892</v>
+      </c>
+      <c r="B258">
+        <v>2015</v>
+      </c>
+      <c r="C258" t="s">
+        <v>893</v>
+      </c>
+      <c r="D258" t="s">
+        <v>894</v>
+      </c>
+      <c r="E258" t="s">
+        <v>4</v>
+      </c>
+      <c r="F258" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>897</v>
+      </c>
+      <c r="B259">
+        <v>2015</v>
+      </c>
+      <c r="C259" t="s">
+        <v>896</v>
+      </c>
+      <c r="D259" t="s">
+        <v>898</v>
+      </c>
+      <c r="E259" t="s">
+        <v>4</v>
+      </c>
+      <c r="F259" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>899</v>
+      </c>
+      <c r="B260">
+        <v>2014</v>
+      </c>
+      <c r="C260" t="s">
+        <v>551</v>
+      </c>
+      <c r="D260" t="s">
+        <v>900</v>
+      </c>
+      <c r="E260" t="s">
+        <v>35</v>
+      </c>
+      <c r="F260" t="s">
+        <v>5</v>
+      </c>
+      <c r="G260" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>901</v>
+      </c>
+      <c r="B261">
+        <v>2014</v>
+      </c>
+      <c r="C261" t="s">
+        <v>106</v>
+      </c>
+      <c r="D261" t="s">
+        <v>902</v>
+      </c>
+      <c r="E261" t="s">
+        <v>35</v>
+      </c>
+      <c r="F261" t="s">
+        <v>196</v>
+      </c>
+      <c r="G261" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>903</v>
+      </c>
+      <c r="B262">
+        <v>2014</v>
+      </c>
+      <c r="C262" t="s">
+        <v>106</v>
+      </c>
+      <c r="D262" t="s">
+        <v>904</v>
+      </c>
+      <c r="E262" t="s">
+        <v>4</v>
+      </c>
+      <c r="F262" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>906</v>
+      </c>
+      <c r="B263">
+        <v>2014</v>
+      </c>
+      <c r="C263" t="s">
+        <v>282</v>
+      </c>
+      <c r="D263" t="s">
+        <v>907</v>
+      </c>
+      <c r="E263" t="s">
+        <v>35</v>
+      </c>
+      <c r="F263" t="s">
+        <v>329</v>
+      </c>
+      <c r="G263" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>908</v>
+      </c>
+      <c r="B264">
+        <v>2014</v>
+      </c>
+      <c r="C264" t="s">
+        <v>198</v>
+      </c>
+      <c r="D264" t="s">
+        <v>910</v>
+      </c>
+      <c r="E264" t="s">
+        <v>4</v>
+      </c>
+      <c r="F264" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>911</v>
+      </c>
+      <c r="B265">
+        <v>2014</v>
+      </c>
+      <c r="C265" t="s">
+        <v>643</v>
+      </c>
+      <c r="D265" t="s">
+        <v>912</v>
+      </c>
+      <c r="E265" t="s">
+        <v>35</v>
+      </c>
+      <c r="F265" t="s">
+        <v>636</v>
+      </c>
+      <c r="G265" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>261</v>
+      </c>
+      <c r="B266">
+        <v>2014</v>
+      </c>
+      <c r="C266" t="s">
+        <v>174</v>
+      </c>
+      <c r="D266" t="s">
+        <v>913</v>
+      </c>
+      <c r="E266" t="s">
+        <v>35</v>
+      </c>
+      <c r="F266" t="s">
+        <v>60</v>
+      </c>
+      <c r="G266" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>914</v>
+      </c>
+      <c r="B267">
+        <v>2014</v>
+      </c>
+      <c r="C267" t="s">
+        <v>915</v>
+      </c>
+      <c r="D267" t="s">
+        <v>916</v>
+      </c>
+      <c r="E267" t="s">
+        <v>4</v>
+      </c>
+      <c r="F267" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>917</v>
+      </c>
+      <c r="B268">
+        <v>2014</v>
+      </c>
+      <c r="C268" t="s">
+        <v>704</v>
+      </c>
+      <c r="D268" t="s">
+        <v>918</v>
+      </c>
+      <c r="E268" t="s">
+        <v>35</v>
+      </c>
+      <c r="F268" t="s">
+        <v>919</v>
+      </c>
+      <c r="G268" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="17">
+      <c r="A269" s="15" t="s">
+        <v>920</v>
+      </c>
+      <c r="B269">
+        <v>2014</v>
+      </c>
+      <c r="C269" t="s">
+        <v>187</v>
+      </c>
+      <c r="D269" t="s">
+        <v>922</v>
+      </c>
+      <c r="E269" t="s">
+        <v>35</v>
+      </c>
+      <c r="F269" t="s">
+        <v>921</v>
+      </c>
+      <c r="G269" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>923</v>
+      </c>
+      <c r="B270">
+        <v>2014</v>
+      </c>
+      <c r="C270" t="s">
+        <v>187</v>
+      </c>
+      <c r="D270" t="s">
+        <v>924</v>
+      </c>
+      <c r="E270" t="s">
+        <v>4</v>
+      </c>
+      <c r="F270" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>926</v>
+      </c>
+      <c r="B271">
+        <v>2014</v>
+      </c>
+      <c r="C271" t="s">
+        <v>927</v>
+      </c>
+      <c r="D271" t="s">
+        <v>928</v>
+      </c>
+      <c r="E271" t="s">
+        <v>35</v>
+      </c>
+      <c r="F271" t="s">
+        <v>929</v>
+      </c>
+      <c r="G271" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>930</v>
+      </c>
+      <c r="B272">
+        <v>2014</v>
+      </c>
+      <c r="C272" t="s">
+        <v>78</v>
+      </c>
+      <c r="D272" t="s">
+        <v>931</v>
+      </c>
+      <c r="F272" t="s">
+        <v>932</v>
+      </c>
+      <c r="G272" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>532</v>
+      </c>
+      <c r="B273">
+        <v>2014</v>
+      </c>
+      <c r="C273" t="s">
+        <v>198</v>
+      </c>
+      <c r="D273" t="s">
+        <v>933</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8670,13 +9846,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C63405-B788-A54C-969C-A11BDC6138A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/OEGRES.xlsx
+++ b/OEGRES.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/oegres/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="2380" windowWidth="28800" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1440" windowWidth="28800" windowHeight="15560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full-&quot;germination&quot; &amp; &quot;cold strt" sheetId="1" r:id="rId1"/>
     <sheet name="core-germination &amp; strat." sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="1019">
   <si>
     <t>inclusion</t>
   </si>
@@ -2854,11 +2859,268 @@
   <si>
     <t>Taiwanese montane Sambucus chinensis seeds require warm stratification, contrasting with other congeneric temperate members</t>
   </si>
+  <si>
+    <t>IT,CS,WS,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>Albrecht</t>
+  </si>
+  <si>
+    <t>Germination niche of the permanent wetland specialist, Parnassia grandifolia DC</t>
+  </si>
+  <si>
+    <t>Carasso</t>
+  </si>
+  <si>
+    <t>IN VITRO BULBLET PRODUCTION AND PLANT REGENERATION FROM IMMATURE EMBRYOS OF FRITILLARIA TUBIFORMIS GREN. &amp; GODR.</t>
+  </si>
+  <si>
+    <t>CS,GP,OR</t>
+  </si>
+  <si>
+    <t>Copete</t>
+  </si>
+  <si>
+    <t>Interpopulation variability on embryo growth, seed dormancy break, and germination in the endangered Iberian daffodil Narcissus eugeniae (Amaryllidaceae)</t>
+  </si>
+  <si>
+    <t>Fu</t>
+  </si>
+  <si>
+    <t>Roles of Endoplasmic Reticulum Stress and Unfolded Protein Response Associated Genes in Seed Stratification and Bud Endodormancy during Chilling Accumulation in Prunus persica</t>
+  </si>
+  <si>
+    <t>CS,OT,OR</t>
+  </si>
+  <si>
+    <t>Changes in seed dormancy of Rosa multibracteata Hemsl. &amp; E. H. Wilson with increasing elevation in an arid valley in the eastern Tibetan Plateau</t>
+  </si>
+  <si>
+    <t>CS,WS,CT,OT,GP</t>
+  </si>
+  <si>
+    <t>Effect of plant growth promoting rhizobacteria (PGPRs) and stratification on germination traits of Crataegus pseudoheterophylla Pojark. seeds</t>
+  </si>
+  <si>
+    <t>OT,CS,WS,GP,GT</t>
+  </si>
+  <si>
+    <t>Fatemeh</t>
+  </si>
+  <si>
+    <t>Sundouri</t>
+  </si>
+  <si>
+    <t>In-vitro germination of hybrid embryo rescued from low chill peaches as affected by stratification period and embryo age</t>
+  </si>
+  <si>
+    <t>Regulation of Endogenous Gibberellins and Abscisic Acid Levels during Different Seed Collection Periods in Panax ginseng</t>
+  </si>
+  <si>
+    <t>OT,OT</t>
+  </si>
+  <si>
+    <t>NT,ORO</t>
+  </si>
+  <si>
+    <t>Kepczynski</t>
+  </si>
+  <si>
+    <t>Participation of GA(3), ethylene, NO and HCN in germination of Amaranthus retroflexus L. seeds with various dormancy levels</t>
+  </si>
+  <si>
+    <t>AR,IT,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>Pinna</t>
+  </si>
+  <si>
+    <t>Comptes Rendus Biologies</t>
+  </si>
+  <si>
+    <t>Effects of pre-treatments and temperature on seed viability and germination of Juniperus macrocarpa Sm</t>
+  </si>
+  <si>
+    <t>WS,CS,IT,GP</t>
+  </si>
+  <si>
+    <t>Leverett</t>
+  </si>
+  <si>
+    <t>Cryptic seed heteromorphism in Packera tomentosa ( Asteraceae): differences in mass and germination</t>
+  </si>
+  <si>
+    <t>OR,SD,CS</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>HortTechnology</t>
+  </si>
+  <si>
+    <t>Germination of Nonstratified Japanese Tree Lilac Seeds as Influenced by Seed Capsule Maturity and Moisture Content</t>
+  </si>
+  <si>
+    <t>OTO,NT</t>
+  </si>
+  <si>
+    <t>Hou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEVELOPMENT OF DORMANCY IN SEEDS OF
+SAPIUM SEBIFERUM (L.) ROXB. DURING MATURATION </t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+An In Vitro Germination Technique for Some Stone Fruit Species: the Embryo Isolated from Cotyledons Successfully Germinated without Cold Pre-treatment of Seeds</t>
+  </si>
+  <si>
+    <t>CT,PS,GP</t>
+  </si>
+  <si>
+    <t>Factors Influencing Germination of a Functionally Important Grassland Plant, Iris tenax</t>
+  </si>
+  <si>
+    <t>WS,CS,GP</t>
+  </si>
+  <si>
+    <t>Ebrahimi</t>
+  </si>
+  <si>
+    <t>Seed Morphogenesis and Effect of Pretreatments on Seed Germination of Persian Shallot (Allium hirtifolium Boiss.), an Endangered Medicinal Plant</t>
+  </si>
+  <si>
+    <t>CS,PS,CT,GP</t>
+  </si>
+  <si>
+    <t>Hao</t>
+  </si>
+  <si>
+    <t>Effect of root length on epicotyl dormancy release in seeds of Paeonia ludlowii, Tibetan peony</t>
+  </si>
+  <si>
+    <t>Al-Hawija</t>
+  </si>
+  <si>
+    <t>Silva Fennica</t>
+  </si>
+  <si>
+    <t>CS,IT,SP,OT,GP</t>
+  </si>
+  <si>
+    <t>Germination differences between natural and afforested populations of Pinus brutia and Cupressus sempervirens</t>
+  </si>
+  <si>
+    <t>Boschi</t>
+  </si>
+  <si>
+    <t>Effect of immersion in solutions with 6-benzylaminopurine on the germination and growth of seeds of Ginkgo biloba L.</t>
+  </si>
+  <si>
+    <t>Guney</t>
+  </si>
+  <si>
+    <t>EFFECTS OF DIFFERENT PRETREATMENTS AND SEED COLLECTION DATES OF ORIENTAL HORNBEAM (Carpinus orientalis Mill.) SEEDS ON GERMINATION</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>Provenance and seed mass determines the seed germination success of Eucalyptus ovata (Myrtaceae)</t>
+  </si>
+  <si>
+    <t>CS,OT,GP,GT,NA</t>
+  </si>
+  <si>
+    <t>Pre-germinative requirements of Maihuenia patagonica and Maihueniopsis darwinii endemic cacti from Patagonia</t>
+  </si>
+  <si>
+    <t>CS,PS,GP,GT</t>
+  </si>
+  <si>
+    <t>Szmajda</t>
+  </si>
+  <si>
+    <t>Seed genotypes for harvesting seeds in the production of generative rootstocks for peach cultivars</t>
+  </si>
+  <si>
+    <t>XII INTERNATIONAL SYMPOSIUM ON PLANT BIOREGULATORS IN FRUIT PRODUCTION</t>
+  </si>
+  <si>
+    <t>Galax Seed Germination and Propagation under In Vitro Conditions</t>
+  </si>
+  <si>
+    <t>L,SP,CS,WS,CT,AR,NA</t>
+  </si>
+  <si>
+    <t>Winiarczyk</t>
+  </si>
+  <si>
+    <t>Acta Societatis Botanicorum Poloniae</t>
+  </si>
+  <si>
+    <t>Investigations of the capacity and strength of seed germination in Allium victorialis L</t>
+  </si>
+  <si>
+    <t>No treatment info</t>
+  </si>
+  <si>
+    <t>NTI</t>
+  </si>
+  <si>
+    <t>NTI,GP</t>
+  </si>
+  <si>
+    <t>Lopez-Corrales</t>
+  </si>
+  <si>
+    <t>VI International Cherry Symposium</t>
+  </si>
+  <si>
+    <t>Sweet Cherry (Prunus avium L.) Breeding Program in Southern Spain</t>
+  </si>
+  <si>
+    <t>CS,AR,GP,GT,NA</t>
+  </si>
+  <si>
+    <t>Scandanavian Journal of Forest Research</t>
+  </si>
+  <si>
+    <t>Primary metabolite mobilization and hormonal regulation during seed dormancy release in Cornus japonica var. chinensis</t>
+  </si>
+  <si>
+    <t>CT,CS,GP,OR</t>
+  </si>
+  <si>
+    <t>Ruiz-Cordova</t>
+  </si>
+  <si>
+    <t>The effect of substrate abundance in the vertical stratification of bromeliad epiphytes in a tropical dry forest (Mexico)</t>
+  </si>
+  <si>
+    <t>NT,OTO</t>
+  </si>
+  <si>
+    <t>Kauth</t>
+  </si>
+  <si>
+    <t>Journal of the Torry Botanical Society</t>
+  </si>
+  <si>
+    <t>Testa imposed dormancy in Vallisneria americana seeds from the Mississippi Gulf Coast</t>
+  </si>
+  <si>
+    <t>L,CS,CT,GP,GT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3394,14 +3656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="118" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
@@ -3409,7 +3671,7 @@
     <col min="13" max="13" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3430,7 +3692,7 @@
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3453,7 +3715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -3479,7 +3741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -3505,7 +3767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -3528,7 +3790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -3551,7 +3813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3577,7 +3839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3600,7 +3862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3623,7 +3885,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3646,7 +3908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3669,7 +3931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -3692,7 +3954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J13" s="7" t="s">
         <v>41</v>
       </c>
@@ -3700,7 +3962,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J14" s="9" t="s">
         <v>18</v>
       </c>
@@ -3708,7 +3970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J15" s="5" t="s">
         <v>29</v>
       </c>
@@ -3716,7 +3978,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="J16" s="7" t="s">
         <v>30</v>
       </c>
@@ -3724,7 +3986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="10:11">
+    <row r="17" spans="10:11" x14ac:dyDescent="0.2">
       <c r="J17" s="9" t="s">
         <v>5</v>
       </c>
@@ -3744,15 +4006,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L273"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H273" sqref="H273"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E303" sqref="E303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
@@ -3761,7 +4023,7 @@
     <col min="12" max="12" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3788,7 +4050,7 @@
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -3814,7 +4076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -3843,7 +4105,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3869,7 +4131,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3895,7 +4157,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3924,7 +4186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -3953,7 +4215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3979,7 +4241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>498</v>
       </c>
@@ -4005,7 +4267,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -4034,7 +4296,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4063,7 +4325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -4089,7 +4351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -4115,7 +4377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4141,7 +4403,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -4170,7 +4432,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -4196,7 +4458,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -4225,7 +4487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -4254,7 +4516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -4280,7 +4542,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2017</v>
       </c>
@@ -4299,14 +4561,14 @@
       <c r="G20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -4325,8 +4587,14 @@
       <c r="F21" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="K21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -4349,7 +4617,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -4372,7 +4640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>133</v>
       </c>
@@ -4395,7 +4663,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -4418,7 +4686,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>140</v>
       </c>
@@ -4441,7 +4709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -4464,7 +4732,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -4484,7 +4752,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>151</v>
       </c>
@@ -4507,7 +4775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -4530,7 +4798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>159</v>
       </c>
@@ -4553,7 +4821,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -4576,7 +4844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -4596,7 +4864,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>173</v>
       </c>
@@ -4616,7 +4884,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>176</v>
       </c>
@@ -4639,7 +4907,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>181</v>
       </c>
@@ -4662,7 +4930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -4682,7 +4950,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -4705,7 +4973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -4728,7 +4996,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -4751,7 +5019,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>197</v>
       </c>
@@ -4774,7 +5042,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>211</v>
       </c>
@@ -4797,7 +5065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -4820,7 +5088,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>217</v>
       </c>
@@ -4843,7 +5111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>220</v>
       </c>
@@ -4863,7 +5131,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -4886,7 +5154,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -4909,7 +5177,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -4929,7 +5197,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>236</v>
       </c>
@@ -4952,7 +5220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -4975,7 +5243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>244</v>
       </c>
@@ -4995,7 +5263,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -5015,7 +5283,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -5035,7 +5303,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>254</v>
       </c>
@@ -5058,7 +5326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -5081,7 +5349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>261</v>
       </c>
@@ -5104,7 +5372,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>264</v>
       </c>
@@ -5127,7 +5395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>267</v>
       </c>
@@ -5147,7 +5415,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -5170,7 +5438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>276</v>
       </c>
@@ -5190,7 +5458,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -5213,7 +5481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>281</v>
       </c>
@@ -5234,7 +5502,7 @@
       </c>
       <c r="G62" s="12"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>285</v>
       </c>
@@ -5254,7 +5522,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>289</v>
       </c>
@@ -5274,7 +5542,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>293</v>
       </c>
@@ -5297,7 +5565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>296</v>
       </c>
@@ -5320,7 +5588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>300</v>
       </c>
@@ -5340,7 +5608,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>303</v>
       </c>
@@ -5363,7 +5631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>307</v>
       </c>
@@ -5386,7 +5654,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>309</v>
       </c>
@@ -5409,7 +5677,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>312</v>
       </c>
@@ -5429,7 +5697,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>315</v>
       </c>
@@ -5449,7 +5717,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>319</v>
       </c>
@@ -5472,7 +5740,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>402</v>
       </c>
@@ -5493,7 +5761,7 @@
       </c>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -5516,7 +5784,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>325</v>
       </c>
@@ -5539,7 +5807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>326</v>
       </c>
@@ -5562,7 +5830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>333</v>
       </c>
@@ -5582,7 +5850,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>337</v>
       </c>
@@ -5605,7 +5873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>340</v>
       </c>
@@ -5625,7 +5893,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>347</v>
       </c>
@@ -5648,7 +5916,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>341</v>
       </c>
@@ -5671,7 +5939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>319</v>
       </c>
@@ -5694,7 +5962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>350</v>
       </c>
@@ -5717,7 +5985,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>357</v>
       </c>
@@ -5737,7 +6005,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>278</v>
       </c>
@@ -5757,7 +6025,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>382</v>
       </c>
@@ -5780,7 +6048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>362</v>
       </c>
@@ -5803,7 +6071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>368</v>
       </c>
@@ -5826,7 +6094,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>369</v>
       </c>
@@ -5846,7 +6114,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>374</v>
       </c>
@@ -5869,7 +6137,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>376</v>
       </c>
@@ -5892,7 +6160,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>379</v>
       </c>
@@ -5915,7 +6183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>382</v>
       </c>
@@ -5938,7 +6206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -5958,7 +6226,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>387</v>
       </c>
@@ -5981,7 +6249,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>391</v>
       </c>
@@ -6002,7 +6270,7 @@
       </c>
       <c r="G97" s="12"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>396</v>
       </c>
@@ -6022,7 +6290,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>326</v>
       </c>
@@ -6042,7 +6310,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>406</v>
       </c>
@@ -6065,7 +6333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -6088,7 +6356,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>413</v>
       </c>
@@ -6111,7 +6379,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>420</v>
       </c>
@@ -6134,7 +6402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>423</v>
       </c>
@@ -6157,7 +6425,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>427</v>
       </c>
@@ -6180,7 +6448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>376</v>
       </c>
@@ -6200,7 +6468,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>435</v>
       </c>
@@ -6220,7 +6488,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>437</v>
       </c>
@@ -6243,7 +6511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>441</v>
       </c>
@@ -6266,7 +6534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>326</v>
       </c>
@@ -6283,7 +6551,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>446</v>
       </c>
@@ -6306,7 +6574,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>450</v>
       </c>
@@ -6326,7 +6594,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>452</v>
       </c>
@@ -6346,7 +6614,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>456</v>
       </c>
@@ -6369,7 +6637,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>460</v>
       </c>
@@ -6389,7 +6657,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>326</v>
       </c>
@@ -6412,7 +6680,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>466</v>
       </c>
@@ -6435,7 +6703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>470</v>
       </c>
@@ -6458,7 +6726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>473</v>
       </c>
@@ -6478,7 +6746,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>475</v>
       </c>
@@ -6498,7 +6766,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>479</v>
       </c>
@@ -6521,7 +6789,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>481</v>
       </c>
@@ -6541,7 +6809,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>484</v>
       </c>
@@ -6561,7 +6829,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>486</v>
       </c>
@@ -6581,7 +6849,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>492</v>
       </c>
@@ -6604,7 +6872,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>326</v>
       </c>
@@ -6624,7 +6892,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>173</v>
       </c>
@@ -6647,7 +6915,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>498</v>
       </c>
@@ -6667,7 +6935,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>502</v>
       </c>
@@ -6690,7 +6958,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>503</v>
       </c>
@@ -6713,7 +6981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>508</v>
       </c>
@@ -6736,7 +7004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>572</v>
       </c>
@@ -6759,7 +7027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>341</v>
       </c>
@@ -6782,7 +7050,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>514</v>
       </c>
@@ -6805,7 +7073,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -6828,7 +7096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>519</v>
       </c>
@@ -6851,7 +7119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>522</v>
       </c>
@@ -6874,7 +7142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>525</v>
       </c>
@@ -6894,7 +7162,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>527</v>
       </c>
@@ -6914,7 +7182,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>532</v>
       </c>
@@ -6937,7 +7205,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>536</v>
       </c>
@@ -6960,7 +7228,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>540</v>
       </c>
@@ -6980,7 +7248,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>542</v>
       </c>
@@ -7003,7 +7271,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>546</v>
       </c>
@@ -7026,7 +7294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>542</v>
       </c>
@@ -7049,7 +7317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>552</v>
       </c>
@@ -7072,7 +7340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>555</v>
       </c>
@@ -7095,7 +7363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>557</v>
       </c>
@@ -7118,7 +7386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="18">
+    <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>562</v>
       </c>
@@ -7141,7 +7409,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>565</v>
       </c>
@@ -7164,7 +7432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>568</v>
       </c>
@@ -7187,7 +7455,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>131</v>
       </c>
@@ -7207,7 +7475,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>573</v>
       </c>
@@ -7230,7 +7498,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>576</v>
       </c>
@@ -7253,7 +7521,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="18">
+    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>581</v>
       </c>
@@ -7276,7 +7544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>582</v>
       </c>
@@ -7296,7 +7564,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>585</v>
       </c>
@@ -7319,7 +7587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>588</v>
       </c>
@@ -7342,7 +7610,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>341</v>
       </c>
@@ -7365,7 +7633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>596</v>
       </c>
@@ -7388,7 +7656,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>597</v>
       </c>
@@ -7408,7 +7676,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="18">
+    <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>602</v>
       </c>
@@ -7431,7 +7699,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>604</v>
       </c>
@@ -7454,7 +7722,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>607</v>
       </c>
@@ -7477,7 +7745,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>610</v>
       </c>
@@ -7497,7 +7765,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>619</v>
       </c>
@@ -7520,7 +7788,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>376</v>
       </c>
@@ -7540,7 +7808,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>621</v>
       </c>
@@ -7563,7 +7831,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>624</v>
       </c>
@@ -7586,7 +7854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="18">
+    <row r="170" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="15" t="s">
         <v>627</v>
       </c>
@@ -7609,7 +7877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>224</v>
       </c>
@@ -7632,7 +7900,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>632</v>
       </c>
@@ -7652,7 +7920,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>634</v>
       </c>
@@ -7675,7 +7943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>637</v>
       </c>
@@ -7695,7 +7963,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>641</v>
       </c>
@@ -7715,7 +7983,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>326</v>
       </c>
@@ -7735,7 +8003,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>319</v>
       </c>
@@ -7758,7 +8026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>650</v>
       </c>
@@ -7778,7 +8046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>653</v>
       </c>
@@ -7801,7 +8069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>261</v>
       </c>
@@ -7824,7 +8092,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>659</v>
       </c>
@@ -7844,7 +8112,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>663</v>
       </c>
@@ -7864,7 +8132,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>341</v>
       </c>
@@ -7884,7 +8152,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>666</v>
       </c>
@@ -7907,7 +8175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>670</v>
       </c>
@@ -7927,7 +8195,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>674</v>
       </c>
@@ -7950,7 +8218,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>670</v>
       </c>
@@ -7970,7 +8238,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>683</v>
       </c>
@@ -7993,7 +8261,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>686</v>
       </c>
@@ -8013,7 +8281,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>690</v>
       </c>
@@ -8036,7 +8304,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>695</v>
       </c>
@@ -8059,7 +8327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>698</v>
       </c>
@@ -8079,7 +8347,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>705</v>
       </c>
@@ -8099,7 +8367,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>706</v>
       </c>
@@ -8119,7 +8387,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>709</v>
       </c>
@@ -8139,7 +8407,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>712</v>
       </c>
@@ -8162,7 +8430,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>718</v>
       </c>
@@ -8185,7 +8453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>720</v>
       </c>
@@ -8205,7 +8473,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>261</v>
       </c>
@@ -8225,7 +8493,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>724</v>
       </c>
@@ -8248,7 +8516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>728</v>
       </c>
@@ -8268,7 +8536,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>731</v>
       </c>
@@ -8291,7 +8559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>734</v>
       </c>
@@ -8314,7 +8582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>532</v>
       </c>
@@ -8334,7 +8602,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>176</v>
       </c>
@@ -8354,7 +8622,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>743</v>
       </c>
@@ -8374,7 +8642,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>341</v>
       </c>
@@ -8397,7 +8665,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>746</v>
       </c>
@@ -8420,7 +8688,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>749</v>
       </c>
@@ -8440,7 +8708,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>59</v>
       </c>
@@ -8460,7 +8728,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>621</v>
       </c>
@@ -8483,7 +8751,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>758</v>
       </c>
@@ -8506,7 +8774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>762</v>
       </c>
@@ -8526,7 +8794,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>765</v>
       </c>
@@ -8546,7 +8814,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>768</v>
       </c>
@@ -8566,7 +8834,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>771</v>
       </c>
@@ -8589,7 +8857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>774</v>
       </c>
@@ -8612,7 +8880,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>777</v>
       </c>
@@ -8635,7 +8903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>479</v>
       </c>
@@ -8655,7 +8923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>783</v>
       </c>
@@ -8675,7 +8943,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>784</v>
       </c>
@@ -8695,7 +8963,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>789</v>
       </c>
@@ -8718,7 +8986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>790</v>
       </c>
@@ -8741,7 +9009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>795</v>
       </c>
@@ -8764,7 +9032,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>797</v>
       </c>
@@ -8787,7 +9055,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>801</v>
       </c>
@@ -8810,7 +9078,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>473</v>
       </c>
@@ -8833,7 +9101,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>807</v>
       </c>
@@ -8853,7 +9121,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>59</v>
       </c>
@@ -8876,7 +9144,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>341</v>
       </c>
@@ -8896,7 +9164,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>369</v>
       </c>
@@ -8916,7 +9184,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>817</v>
       </c>
@@ -8939,7 +9207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>437</v>
       </c>
@@ -8959,7 +9227,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>821</v>
       </c>
@@ -8982,7 +9250,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>826</v>
       </c>
@@ -9005,7 +9273,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>829</v>
       </c>
@@ -9028,7 +9296,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>833</v>
       </c>
@@ -9051,7 +9319,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>838</v>
       </c>
@@ -9074,7 +9342,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>840</v>
       </c>
@@ -9097,7 +9365,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>758</v>
       </c>
@@ -9120,7 +9388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>795</v>
       </c>
@@ -9143,7 +9411,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>36</v>
       </c>
@@ -9166,7 +9434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>850</v>
       </c>
@@ -9189,7 +9457,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>376</v>
       </c>
@@ -9212,7 +9480,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>176</v>
       </c>
@@ -9232,7 +9500,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>859</v>
       </c>
@@ -9252,7 +9520,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>319</v>
       </c>
@@ -9275,7 +9543,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="17">
+    <row r="248" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>865</v>
       </c>
@@ -9298,7 +9566,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>868</v>
       </c>
@@ -9321,7 +9589,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>870</v>
       </c>
@@ -9344,7 +9612,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>441</v>
       </c>
@@ -9364,7 +9632,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>875</v>
       </c>
@@ -9387,7 +9655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>879</v>
       </c>
@@ -9410,7 +9678,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>391</v>
       </c>
@@ -9430,7 +9698,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>884</v>
       </c>
@@ -9450,7 +9718,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>588</v>
       </c>
@@ -9473,7 +9741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>889</v>
       </c>
@@ -9496,7 +9764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>892</v>
       </c>
@@ -9516,7 +9784,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>897</v>
       </c>
@@ -9536,7 +9804,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>899</v>
       </c>
@@ -9559,7 +9827,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>901</v>
       </c>
@@ -9582,7 +9850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>903</v>
       </c>
@@ -9602,7 +9870,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>906</v>
       </c>
@@ -9625,7 +9893,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>908</v>
       </c>
@@ -9645,7 +9913,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>911</v>
       </c>
@@ -9668,7 +9936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>261</v>
       </c>
@@ -9691,7 +9959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>914</v>
       </c>
@@ -9711,7 +9979,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>917</v>
       </c>
@@ -9734,7 +10002,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="17">
+    <row r="269" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A269" s="15" t="s">
         <v>920</v>
       </c>
@@ -9757,7 +10025,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>923</v>
       </c>
@@ -9777,7 +10045,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>926</v>
       </c>
@@ -9800,7 +10068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>930</v>
       </c>
@@ -9813,6 +10081,9 @@
       <c r="D272" t="s">
         <v>931</v>
       </c>
+      <c r="E272" t="s">
+        <v>35</v>
+      </c>
       <c r="F272" t="s">
         <v>932</v>
       </c>
@@ -9820,7 +10091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>532</v>
       </c>
@@ -9832,6 +10103,655 @@
       </c>
       <c r="D273" t="s">
         <v>933</v>
+      </c>
+      <c r="E273" t="s">
+        <v>4</v>
+      </c>
+      <c r="F273" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>935</v>
+      </c>
+      <c r="B274">
+        <v>2014</v>
+      </c>
+      <c r="C274" t="s">
+        <v>198</v>
+      </c>
+      <c r="D274" t="s">
+        <v>936</v>
+      </c>
+      <c r="E274" t="s">
+        <v>4</v>
+      </c>
+      <c r="F274" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>937</v>
+      </c>
+      <c r="B275">
+        <v>2014</v>
+      </c>
+      <c r="C275" t="s">
+        <v>126</v>
+      </c>
+      <c r="D275" t="s">
+        <v>938</v>
+      </c>
+      <c r="E275" t="s">
+        <v>35</v>
+      </c>
+      <c r="F275" t="s">
+        <v>939</v>
+      </c>
+      <c r="G275" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>940</v>
+      </c>
+      <c r="B276">
+        <v>2014</v>
+      </c>
+      <c r="C276" t="s">
+        <v>237</v>
+      </c>
+      <c r="D276" t="s">
+        <v>941</v>
+      </c>
+      <c r="E276" t="s">
+        <v>4</v>
+      </c>
+      <c r="F276" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>942</v>
+      </c>
+      <c r="B277">
+        <v>2014</v>
+      </c>
+      <c r="C277" t="s">
+        <v>101</v>
+      </c>
+      <c r="D277" t="s">
+        <v>943</v>
+      </c>
+      <c r="E277" t="s">
+        <v>35</v>
+      </c>
+      <c r="F277" t="s">
+        <v>944</v>
+      </c>
+      <c r="G277" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>695</v>
+      </c>
+      <c r="B278">
+        <v>2014</v>
+      </c>
+      <c r="C278" t="s">
+        <v>160</v>
+      </c>
+      <c r="D278" t="s">
+        <v>945</v>
+      </c>
+      <c r="E278" t="s">
+        <v>35</v>
+      </c>
+      <c r="F278" t="s">
+        <v>946</v>
+      </c>
+      <c r="G278" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>949</v>
+      </c>
+      <c r="B279">
+        <v>2014</v>
+      </c>
+      <c r="C279" t="s">
+        <v>70</v>
+      </c>
+      <c r="D279" t="s">
+        <v>947</v>
+      </c>
+      <c r="E279" t="s">
+        <v>4</v>
+      </c>
+      <c r="F279" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>950</v>
+      </c>
+      <c r="B280">
+        <v>2014</v>
+      </c>
+      <c r="C280" t="s">
+        <v>255</v>
+      </c>
+      <c r="D280" t="s">
+        <v>951</v>
+      </c>
+      <c r="E280" t="s">
+        <v>35</v>
+      </c>
+      <c r="F280" t="s">
+        <v>352</v>
+      </c>
+      <c r="G280" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>326</v>
+      </c>
+      <c r="B281">
+        <v>2014</v>
+      </c>
+      <c r="C281" t="s">
+        <v>753</v>
+      </c>
+      <c r="D281" t="s">
+        <v>952</v>
+      </c>
+      <c r="E281" t="s">
+        <v>35</v>
+      </c>
+      <c r="F281" t="s">
+        <v>953</v>
+      </c>
+      <c r="G281" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>955</v>
+      </c>
+      <c r="B282">
+        <v>2014</v>
+      </c>
+      <c r="C282" t="s">
+        <v>166</v>
+      </c>
+      <c r="D282" t="s">
+        <v>956</v>
+      </c>
+      <c r="E282" t="s">
+        <v>4</v>
+      </c>
+      <c r="F282" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>958</v>
+      </c>
+      <c r="B283">
+        <v>2014</v>
+      </c>
+      <c r="C283" t="s">
+        <v>959</v>
+      </c>
+      <c r="D283" t="s">
+        <v>960</v>
+      </c>
+      <c r="E283" t="s">
+        <v>35</v>
+      </c>
+      <c r="F283" t="s">
+        <v>961</v>
+      </c>
+      <c r="G283" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>962</v>
+      </c>
+      <c r="B284">
+        <v>2014</v>
+      </c>
+      <c r="C284" t="s">
+        <v>237</v>
+      </c>
+      <c r="D284" t="s">
+        <v>963</v>
+      </c>
+      <c r="E284" t="s">
+        <v>4</v>
+      </c>
+      <c r="F284" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>965</v>
+      </c>
+      <c r="B285">
+        <v>2014</v>
+      </c>
+      <c r="C285" t="s">
+        <v>966</v>
+      </c>
+      <c r="D285" t="s">
+        <v>967</v>
+      </c>
+      <c r="E285" t="s">
+        <v>35</v>
+      </c>
+      <c r="F285" t="s">
+        <v>537</v>
+      </c>
+      <c r="G285" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>969</v>
+      </c>
+      <c r="B286">
+        <v>2014</v>
+      </c>
+      <c r="C286" t="s">
+        <v>126</v>
+      </c>
+      <c r="D286" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F286" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G286" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>971</v>
+      </c>
+      <c r="B287">
+        <v>2014</v>
+      </c>
+      <c r="C287" t="s">
+        <v>218</v>
+      </c>
+      <c r="D287" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F287" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="G287" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>588</v>
+      </c>
+      <c r="B288">
+        <v>2014</v>
+      </c>
+      <c r="C288" t="s">
+        <v>101</v>
+      </c>
+      <c r="D288" t="s">
+        <v>974</v>
+      </c>
+      <c r="E288" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F288" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="G288" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>976</v>
+      </c>
+      <c r="B289">
+        <v>2014</v>
+      </c>
+      <c r="C289" t="s">
+        <v>753</v>
+      </c>
+      <c r="D289" t="s">
+        <v>977</v>
+      </c>
+      <c r="E289" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F289" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="G289" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>979</v>
+      </c>
+      <c r="B290">
+        <v>2014</v>
+      </c>
+      <c r="C290" t="s">
+        <v>818</v>
+      </c>
+      <c r="D290" t="s">
+        <v>980</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F290" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>981</v>
+      </c>
+      <c r="B291">
+        <v>2014</v>
+      </c>
+      <c r="C291" t="s">
+        <v>982</v>
+      </c>
+      <c r="D291" t="s">
+        <v>984</v>
+      </c>
+      <c r="E291" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F291" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="G291" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>985</v>
+      </c>
+      <c r="B292">
+        <v>2014</v>
+      </c>
+      <c r="C292" t="s">
+        <v>843</v>
+      </c>
+      <c r="D292" t="s">
+        <v>986</v>
+      </c>
+      <c r="E292" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F292" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="G292" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>987</v>
+      </c>
+      <c r="B293">
+        <v>2014</v>
+      </c>
+      <c r="C293" t="s">
+        <v>113</v>
+      </c>
+      <c r="D293" t="s">
+        <v>988</v>
+      </c>
+      <c r="E293" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F293" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G293" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>989</v>
+      </c>
+      <c r="B294">
+        <v>2014</v>
+      </c>
+      <c r="C294" t="s">
+        <v>342</v>
+      </c>
+      <c r="D294" t="s">
+        <v>990</v>
+      </c>
+      <c r="E294" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F294" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="G294" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>624</v>
+      </c>
+      <c r="B295">
+        <v>2014</v>
+      </c>
+      <c r="C295" t="s">
+        <v>123</v>
+      </c>
+      <c r="D295" t="s">
+        <v>992</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F295" s="12" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>994</v>
+      </c>
+      <c r="B296">
+        <v>2014</v>
+      </c>
+      <c r="C296" t="s">
+        <v>645</v>
+      </c>
+      <c r="D296" t="s">
+        <v>995</v>
+      </c>
+      <c r="E296" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F296" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="G296" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>224</v>
+      </c>
+      <c r="B297">
+        <v>2014</v>
+      </c>
+      <c r="C297" t="s">
+        <v>996</v>
+      </c>
+      <c r="D297" t="s">
+        <v>997</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F297" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="G297" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>999</v>
+      </c>
+      <c r="B298">
+        <v>2014</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F298" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G298" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B299">
+        <v>2014</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E299" t="s">
+        <v>35</v>
+      </c>
+      <c r="F299" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G299" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>942</v>
+      </c>
+      <c r="B300">
+        <v>2014</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E300" t="s">
+        <v>35</v>
+      </c>
+      <c r="F300" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G300" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B301">
+        <v>2014</v>
+      </c>
+      <c r="C301" t="s">
+        <v>156</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E301" t="s">
+        <v>35</v>
+      </c>
+      <c r="F301" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="G301" s="12" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B302">
+        <v>2014</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E302" t="s">
+        <v>4</v>
+      </c>
+      <c r="F302" s="12" t="s">
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -9846,12 +10766,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/OEGRES.xlsx
+++ b/OEGRES.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="28800" windowHeight="15560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="460" windowWidth="23660" windowHeight="14460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full-&quot;germination&quot; &amp; &quot;cold strt" sheetId="1" r:id="rId1"/>
     <sheet name="core-germination &amp; strat." sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="final" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="1022">
   <si>
     <t>inclusion</t>
   </si>
@@ -3115,6 +3115,15 @@
   </si>
   <si>
     <t>L,CS,CT,GP,GT</t>
+  </si>
+  <si>
+    <t>as of June 21, refined search by articles notes and review (elimating preceedings papers and book chapters) after entry number 300.</t>
+  </si>
+  <si>
+    <t>This reduces the search to 1195 hits</t>
+  </si>
+  <si>
+    <t>Ayuso</t>
   </si>
 </sst>
 </file>
@@ -4007,23 +4016,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L302"/>
+  <dimension ref="A1:N302"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E303" sqref="E303"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="97" zoomScalePageLayoutView="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E300" sqref="E300:G302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="61.83203125" customWidth="1"/>
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
     <col min="12" max="12" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -4050,7 +4059,7 @@
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4075,8 +4084,11 @@
       <c r="L2" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -4104,8 +4116,11 @@
       <c r="L3" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -4131,7 +4146,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4157,7 +4172,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -4186,7 +4201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -4215,7 +4230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4241,7 +4256,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>498</v>
       </c>
@@ -4267,7 +4282,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -4296,7 +4311,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -4325,7 +4340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -4351,7 +4366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -4377,7 +4392,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -4403,7 +4418,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -4432,7 +4447,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -4543,6 +4558,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1021</v>
+      </c>
       <c r="B20">
         <v>2017</v>
       </c>
@@ -6546,6 +6564,9 @@
       </c>
       <c r="D110" t="s">
         <v>442</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="F110" s="12" t="s">
         <v>444</v>
